--- a/Auction_Path_KG/result_summary/KG-results-summary.xlsx
+++ b/Auction_Path_KG/result_summary/KG-results-summary.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/garima/Desktop/Garima/DMML/KnowledgeGraph/KG-PathFinding/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/garima/KG-Auction/Auction_Path_KG/result_summary/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB827DD2-CA3D-874D-9148-FE3BE155873E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DA95EFA-E896-AC4B-9914-239D85CCBD7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33600" yWindow="500" windowWidth="28800" windowHeight="16380" xr2:uid="{EB6D382C-78D6-5849-A671-74BC268FC498}"/>
+    <workbookView xWindow="28800" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{EB6D382C-78D6-5849-A671-74BC268FC498}"/>
   </bookViews>
   <sheets>
     <sheet name="Experiment Results summary" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,6 +28,7 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -1705,16 +1706,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="233">
+  <cellXfs count="203">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1736,9 +1734,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1757,16 +1752,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1774,7 +1763,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1785,7 +1774,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1800,7 +1789,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1815,16 +1803,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
@@ -1832,16 +1820,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
@@ -1855,19 +1841,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1890,10 +1870,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1901,9 +1881,8 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="35" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1911,37 +1890,33 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="37" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1949,14 +1924,12 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1980,143 +1953,38 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2128,17 +1996,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="42" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2153,7 +2010,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2171,34 +2028,21 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2235,6 +2079,105 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2549,10 +2492,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53E9E367-D0F2-624D-9DA2-6466A60DD08B}">
-  <dimension ref="A1:U144"/>
+  <dimension ref="A1:U135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="T26" sqref="T26"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2567,8 +2510,8 @@
     <col min="8" max="8" width="70.33203125" customWidth="1"/>
     <col min="9" max="9" width="21.83203125" customWidth="1"/>
     <col min="10" max="10" width="18.6640625" customWidth="1"/>
-    <col min="11" max="11" width="5.1640625" style="41" customWidth="1"/>
-    <col min="12" max="12" width="16.5" style="57" customWidth="1"/>
+    <col min="11" max="11" width="5.1640625" style="36" customWidth="1"/>
+    <col min="12" max="12" width="16.5" customWidth="1"/>
     <col min="13" max="13" width="19.1640625" customWidth="1"/>
     <col min="14" max="14" width="17.1640625" customWidth="1"/>
     <col min="15" max="15" width="17.33203125" customWidth="1"/>
@@ -2583,125 +2526,97 @@
       <c r="A1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="70"/>
-      <c r="M1" s="57"/>
-      <c r="N1" s="57"/>
+      <c r="K1" s="62"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="7" t="s">
         <v>32</v>
       </c>
       <c r="B2" s="1">
         <v>16362</v>
       </c>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57"/>
-      <c r="K2" s="70"/>
-      <c r="M2" s="57"/>
-      <c r="N2" s="57"/>
+      <c r="K2" s="62"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="7" t="s">
         <v>31</v>
       </c>
       <c r="B3" s="1">
         <v>55607</v>
       </c>
-      <c r="I3" s="57"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="70"/>
-      <c r="M3" s="57"/>
-      <c r="N3" s="57"/>
+      <c r="K3" s="62"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="7" t="s">
         <v>33</v>
       </c>
       <c r="B4" s="1"/>
-      <c r="I4" s="57"/>
-      <c r="J4" s="57"/>
-      <c r="K4" s="70"/>
-      <c r="M4" s="57"/>
-      <c r="N4" s="57"/>
+      <c r="K4" s="62"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="7" t="s">
         <v>34</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I5" s="57"/>
-      <c r="J5" s="57"/>
-      <c r="K5" s="70"/>
-      <c r="M5" s="57"/>
-      <c r="N5" s="57"/>
+      <c r="K5" s="62"/>
     </row>
     <row r="6" spans="1:14" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="I6" s="57"/>
-      <c r="J6" s="57"/>
-      <c r="K6" s="70"/>
-      <c r="M6" s="57"/>
-      <c r="N6" s="57"/>
+      <c r="K6" s="62"/>
     </row>
     <row r="7" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="10"/>
-      <c r="I7" s="57"/>
-      <c r="J7" s="57"/>
-      <c r="K7" s="70"/>
-      <c r="M7" s="57"/>
-      <c r="N7" s="57"/>
+      <c r="B7" s="9"/>
+      <c r="K7" s="62"/>
     </row>
     <row r="8" spans="1:14" ht="52" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="13" t="s">
+      <c r="E8" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F8" s="14" t="s">
+      <c r="F8" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="33" t="s">
+      <c r="G8" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="H8" s="60" t="s">
+      <c r="H8" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="I8" s="47" t="s">
+      <c r="I8" s="42" t="s">
         <v>121</v>
       </c>
-      <c r="J8" s="61" t="s">
+      <c r="J8" s="54" t="s">
         <v>120</v>
       </c>
-      <c r="K8" s="181"/>
-      <c r="L8" s="225" t="s">
+      <c r="K8" s="128"/>
+      <c r="L8" s="162" t="s">
         <v>215</v>
       </c>
-      <c r="M8" s="223" t="s">
+      <c r="M8" s="160" t="s">
         <v>221</v>
       </c>
-      <c r="N8" s="221" t="s">
+      <c r="N8" s="158" t="s">
         <v>222</v>
       </c>
     </row>
@@ -2709,10 +2624,10 @@
       <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="156" t="s">
+      <c r="B9" s="173" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="158" t="s">
+      <c r="C9" s="189" t="s">
         <v>1</v>
       </c>
       <c r="D9" s="3" t="s">
@@ -2724,26 +2639,26 @@
       <c r="F9" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G9" s="34" t="s">
+      <c r="G9" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="H9" s="37" t="s">
+      <c r="H9" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="I9" s="29">
+      <c r="I9" s="25">
         <v>6</v>
       </c>
-      <c r="J9" s="40">
+      <c r="J9" s="35">
         <v>6</v>
       </c>
-      <c r="K9" s="93"/>
-      <c r="L9" s="226">
+      <c r="K9" s="83"/>
+      <c r="L9" s="163">
         <v>6</v>
       </c>
-      <c r="M9" s="227">
+      <c r="M9" s="164">
         <v>6</v>
       </c>
-      <c r="N9" s="85">
+      <c r="N9" s="1">
         <v>8</v>
       </c>
     </row>
@@ -2751,8 +2666,8 @@
       <c r="A10" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="158"/>
-      <c r="C10" s="158"/>
+      <c r="B10" s="189"/>
+      <c r="C10" s="189"/>
       <c r="D10" s="3" t="s">
         <v>41</v>
       </c>
@@ -2762,26 +2677,26 @@
       <c r="F10" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="G10" s="34" t="s">
+      <c r="G10" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="H10" s="37" t="s">
+      <c r="H10" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="I10" s="29">
+      <c r="I10" s="25">
         <v>27</v>
       </c>
-      <c r="J10" s="40">
+      <c r="J10" s="35">
         <v>13</v>
       </c>
-      <c r="K10" s="93"/>
-      <c r="L10" s="86">
+      <c r="K10" s="83"/>
+      <c r="L10" s="76">
         <v>3</v>
       </c>
-      <c r="M10" s="29">
+      <c r="M10" s="25">
         <v>8</v>
       </c>
-      <c r="N10" s="85">
+      <c r="N10" s="1">
         <v>22</v>
       </c>
     </row>
@@ -2789,37 +2704,37 @@
       <c r="A11" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="158"/>
-      <c r="C11" s="158"/>
+      <c r="B11" s="189"/>
+      <c r="C11" s="189"/>
       <c r="D11" s="3" t="s">
         <v>14</v>
       </c>
       <c r="E11" s="3">
         <v>13</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="F11" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G11" s="34" t="s">
+      <c r="G11" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="H11" s="37" t="s">
+      <c r="H11" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="I11" s="29">
+      <c r="I11" s="25">
         <v>12</v>
       </c>
-      <c r="J11" s="40">
+      <c r="J11" s="35">
         <v>7</v>
       </c>
-      <c r="K11" s="93"/>
-      <c r="L11" s="86">
+      <c r="K11" s="83"/>
+      <c r="L11" s="76">
         <v>19</v>
       </c>
-      <c r="M11" s="29">
+      <c r="M11" s="25">
         <v>12</v>
       </c>
-      <c r="N11" s="85">
+      <c r="N11" s="1">
         <v>14</v>
       </c>
     </row>
@@ -2827,7 +2742,7 @@
       <c r="A12" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="158"/>
+      <c r="B12" s="189"/>
       <c r="C12" s="3" t="s">
         <v>40</v>
       </c>
@@ -2840,26 +2755,26 @@
       <c r="F12" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="G12" s="34" t="s">
+      <c r="G12" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="H12" s="37" t="s">
+      <c r="H12" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="I12" s="29">
+      <c r="I12" s="25">
         <v>12</v>
       </c>
-      <c r="J12" s="40">
+      <c r="J12" s="35">
         <v>12</v>
       </c>
-      <c r="K12" s="93"/>
-      <c r="L12" s="228">
+      <c r="K12" s="83"/>
+      <c r="L12" s="165">
         <v>12</v>
       </c>
-      <c r="M12" s="229">
+      <c r="M12" s="166">
         <v>12</v>
       </c>
-      <c r="N12" s="85">
+      <c r="N12" s="1">
         <v>14</v>
       </c>
     </row>
@@ -2867,7 +2782,7 @@
       <c r="A13" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="158"/>
+      <c r="B13" s="189"/>
       <c r="C13" s="3" t="s">
         <v>38</v>
       </c>
@@ -2880,26 +2795,26 @@
       <c r="F13" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="G13" s="34" t="s">
+      <c r="G13" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="H13" s="37" t="s">
+      <c r="H13" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="I13" s="29">
+      <c r="I13" s="25">
         <v>19</v>
       </c>
-      <c r="J13" s="40">
+      <c r="J13" s="35">
         <v>18</v>
       </c>
-      <c r="K13" s="93"/>
-      <c r="L13" s="86">
+      <c r="K13" s="83"/>
+      <c r="L13" s="76">
         <v>6</v>
       </c>
-      <c r="M13" s="29">
+      <c r="M13" s="25">
         <v>18</v>
       </c>
-      <c r="N13" s="85">
+      <c r="N13" s="1">
         <v>11</v>
       </c>
     </row>
@@ -2907,7 +2822,7 @@
       <c r="A14" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="158"/>
+      <c r="B14" s="189"/>
       <c r="C14" s="3" t="s">
         <v>39</v>
       </c>
@@ -2920,53 +2835,53 @@
       <c r="F14" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="G14" s="34" t="s">
+      <c r="G14" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="H14" s="18" t="s">
+      <c r="H14" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="I14" s="52">
+      <c r="I14" s="47">
         <v>18</v>
       </c>
-      <c r="J14" s="62">
+      <c r="J14" s="55">
         <v>13</v>
       </c>
-      <c r="K14" s="182"/>
-      <c r="L14" s="87">
+      <c r="K14" s="129"/>
+      <c r="L14" s="77">
         <v>16</v>
       </c>
-      <c r="M14" s="52">
+      <c r="M14" s="47">
         <v>15</v>
       </c>
-      <c r="N14" s="81">
+      <c r="N14" s="72">
         <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="11"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="35"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="58"/>
-      <c r="J15" s="59"/>
-      <c r="K15" s="183"/>
-      <c r="L15" s="212"/>
-      <c r="M15" s="212"/>
-      <c r="N15" s="212"/>
+      <c r="A15" s="10"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="51"/>
+      <c r="J15" s="52"/>
+      <c r="K15" s="130"/>
+      <c r="L15" s="151"/>
+      <c r="M15" s="151"/>
+      <c r="N15" s="151"/>
     </row>
     <row r="16" spans="1:14" ht="67" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B16" s="157" t="s">
+      <c r="B16" s="190" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="160" t="s">
+      <c r="C16" s="192" t="s">
         <v>1</v>
       </c>
       <c r="D16" s="3" t="s">
@@ -2978,26 +2893,26 @@
       <c r="F16" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="G16" s="34" t="s">
+      <c r="G16" s="30" t="s">
         <v>44</v>
       </c>
       <c r="H16" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="I16" s="29">
+      <c r="I16" s="25">
         <v>12</v>
       </c>
-      <c r="J16" s="40">
+      <c r="J16" s="35">
         <v>14</v>
       </c>
-      <c r="K16" s="93"/>
-      <c r="L16" s="230">
+      <c r="K16" s="83"/>
+      <c r="L16" s="167">
         <v>12</v>
       </c>
-      <c r="M16" s="231">
+      <c r="M16" s="168">
         <v>12</v>
       </c>
-      <c r="N16" s="213">
+      <c r="N16" s="5">
         <v>30</v>
       </c>
     </row>
@@ -3005,8 +2920,8 @@
       <c r="A17" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="159"/>
-      <c r="C17" s="161"/>
+      <c r="B17" s="191"/>
+      <c r="C17" s="193"/>
       <c r="D17" s="3" t="s">
         <v>41</v>
       </c>
@@ -3016,26 +2931,26 @@
       <c r="F17" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="G17" s="34" t="s">
+      <c r="G17" s="30" t="s">
         <v>101</v>
       </c>
-      <c r="H17" s="5" t="s">
+      <c r="H17" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="I17" s="29">
+      <c r="I17" s="25">
         <v>95</v>
       </c>
-      <c r="J17" s="40">
+      <c r="J17" s="35">
         <v>92</v>
       </c>
-      <c r="K17" s="93"/>
-      <c r="L17" s="86">
+      <c r="K17" s="83"/>
+      <c r="L17" s="76">
         <v>13</v>
       </c>
-      <c r="M17" s="29">
+      <c r="M17" s="25">
         <v>36</v>
       </c>
-      <c r="N17" s="85">
+      <c r="N17" s="1">
         <v>51</v>
       </c>
     </row>
@@ -3043,8 +2958,8 @@
       <c r="A18" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="159"/>
-      <c r="C18" s="162"/>
+      <c r="B18" s="191"/>
+      <c r="C18" s="194"/>
       <c r="D18" s="3" t="s">
         <v>14</v>
       </c>
@@ -3054,26 +2969,26 @@
       <c r="F18" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="G18" s="34" t="s">
+      <c r="G18" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="H18" s="5" t="s">
+      <c r="H18" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="I18" s="29">
+      <c r="I18" s="25">
         <v>25</v>
       </c>
-      <c r="J18" s="40">
+      <c r="J18" s="35">
         <v>32</v>
       </c>
-      <c r="K18" s="93"/>
-      <c r="L18" s="211" t="s">
+      <c r="K18" s="83"/>
+      <c r="L18" s="15" t="s">
         <v>214</v>
       </c>
-      <c r="M18" s="29">
+      <c r="M18" s="25">
         <v>19</v>
       </c>
-      <c r="N18" s="85">
+      <c r="N18" s="1">
         <v>68</v>
       </c>
     </row>
@@ -3081,7 +2996,7 @@
       <c r="A19" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B19" s="159"/>
+      <c r="B19" s="191"/>
       <c r="C19" s="3" t="s">
         <v>40</v>
       </c>
@@ -3094,26 +3009,26 @@
       <c r="F19" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="G19" s="34" t="s">
+      <c r="G19" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="H19" s="5" t="s">
+      <c r="H19" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="I19" s="29">
+      <c r="I19" s="25">
         <v>36</v>
       </c>
-      <c r="J19" s="40">
+      <c r="J19" s="35">
         <v>39</v>
       </c>
-      <c r="K19" s="93"/>
-      <c r="L19" s="228">
+      <c r="K19" s="83"/>
+      <c r="L19" s="165">
         <v>36</v>
       </c>
-      <c r="M19" s="229">
+      <c r="M19" s="166">
         <v>36</v>
       </c>
-      <c r="N19" s="85">
+      <c r="N19" s="1">
         <v>54</v>
       </c>
     </row>
@@ -3121,250 +3036,250 @@
       <c r="A20" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B20" s="159"/>
+      <c r="B20" s="191"/>
       <c r="C20" s="3" t="s">
         <v>38</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="E20" s="4">
+      <c r="E20" s="3">
         <v>45</v>
       </c>
-      <c r="F20" s="15" t="s">
+      <c r="F20" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="G20" s="34" t="s">
+      <c r="G20" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="H20" s="5" t="s">
+      <c r="H20" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="I20" s="29">
+      <c r="I20" s="25">
         <v>39</v>
       </c>
-      <c r="J20" s="40">
+      <c r="J20" s="35">
         <v>82</v>
       </c>
-      <c r="K20" s="93"/>
-      <c r="L20" s="86">
+      <c r="K20" s="83"/>
+      <c r="L20" s="76">
         <v>130</v>
       </c>
-      <c r="M20" s="29">
+      <c r="M20" s="25">
         <v>59</v>
       </c>
-      <c r="N20" s="85">
+      <c r="N20" s="1">
         <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:21" ht="120" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="20" t="s">
+      <c r="A21" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B21" s="159"/>
-      <c r="C21" s="20" t="s">
+      <c r="B21" s="191"/>
+      <c r="C21" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="D21" s="20" t="s">
+      <c r="D21" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="E21" s="21">
+      <c r="E21" s="18">
         <v>42</v>
       </c>
-      <c r="F21" s="20" t="s">
+      <c r="F21" s="18" t="s">
         <v>139</v>
       </c>
-      <c r="G21" s="36" t="s">
+      <c r="G21" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="H21" s="5" t="s">
+      <c r="H21" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="I21" s="29">
+      <c r="I21" s="25">
         <v>108</v>
       </c>
-      <c r="J21" s="40">
+      <c r="J21" s="35">
         <v>55</v>
       </c>
-      <c r="K21" s="93"/>
-      <c r="L21" s="87">
+      <c r="K21" s="83"/>
+      <c r="L21" s="77">
         <v>50</v>
       </c>
-      <c r="M21" s="52">
+      <c r="M21" s="47">
         <v>30</v>
       </c>
-      <c r="N21" s="81">
+      <c r="N21" s="72">
         <v>77</v>
       </c>
     </row>
     <row r="22" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="25"/>
-      <c r="B22" s="26"/>
-      <c r="C22" s="26"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="26"/>
-      <c r="F22" s="26"/>
-      <c r="G22" s="26"/>
-      <c r="H22" s="42"/>
-      <c r="I22" s="42"/>
-      <c r="J22" s="43"/>
-      <c r="K22" s="194"/>
-      <c r="L22" s="95"/>
-      <c r="M22" s="31"/>
-      <c r="N22" s="31"/>
-      <c r="O22" s="31"/>
-      <c r="P22" s="31"/>
-      <c r="Q22" s="31"/>
-      <c r="R22" s="31"/>
-      <c r="S22" s="31"/>
+      <c r="A22" s="21"/>
+      <c r="B22" s="22"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="37"/>
+      <c r="I22" s="37"/>
+      <c r="J22" s="38"/>
+      <c r="K22" s="136"/>
+      <c r="L22" s="27"/>
+      <c r="M22" s="27"/>
+      <c r="N22" s="27"/>
+      <c r="O22" s="27"/>
+      <c r="P22" s="27"/>
+      <c r="Q22" s="27"/>
+      <c r="R22" s="27"/>
+      <c r="S22" s="27"/>
     </row>
     <row r="23" spans="1:21" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="163" t="s">
+      <c r="A23" s="195" t="s">
         <v>81</v>
       </c>
-      <c r="B23" s="164"/>
-      <c r="C23" s="164"/>
-      <c r="D23" s="27"/>
-      <c r="E23" s="27"/>
-      <c r="F23" s="27"/>
-      <c r="G23" s="30"/>
-      <c r="H23" s="46"/>
-      <c r="I23" s="47" t="s">
+      <c r="B23" s="196"/>
+      <c r="C23" s="196"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="41"/>
+      <c r="I23" s="42" t="s">
         <v>122</v>
       </c>
-      <c r="J23" s="47" t="s">
+      <c r="J23" s="42" t="s">
         <v>123</v>
       </c>
-      <c r="K23" s="48"/>
-      <c r="L23" s="222" t="s">
+      <c r="K23" s="43"/>
+      <c r="L23" s="159" t="s">
         <v>215</v>
       </c>
-      <c r="M23" s="223" t="s">
+      <c r="M23" s="160" t="s">
         <v>221</v>
       </c>
-      <c r="N23" s="224" t="s">
+      <c r="N23" s="161" t="s">
         <v>222</v>
       </c>
-      <c r="O23" s="177" t="s">
+      <c r="O23" s="185" t="s">
         <v>110</v>
       </c>
-      <c r="P23" s="178"/>
-      <c r="Q23" s="178"/>
-      <c r="R23" s="178"/>
-      <c r="S23" s="178"/>
-      <c r="T23" s="178"/>
-      <c r="U23" s="215"/>
+      <c r="P23" s="186"/>
+      <c r="Q23" s="186"/>
+      <c r="R23" s="186"/>
+      <c r="S23" s="186"/>
+      <c r="T23" s="186"/>
+      <c r="U23" s="202"/>
     </row>
     <row r="24" spans="1:21" ht="85" x14ac:dyDescent="0.2">
-      <c r="A24" s="22" t="s">
+      <c r="A24" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="B24" s="23" t="s">
+      <c r="B24" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C24" s="23" t="s">
+      <c r="C24" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D24" s="23" t="s">
+      <c r="D24" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="E24" s="23" t="s">
+      <c r="E24" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="F24" s="24" t="s">
+      <c r="F24" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="G24" s="28" t="s">
+      <c r="G24" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="H24" s="50" t="s">
+      <c r="H24" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="I24" s="29"/>
-      <c r="J24" s="29"/>
-      <c r="K24" s="44"/>
-      <c r="L24" s="94"/>
-      <c r="M24" s="29"/>
-      <c r="N24" s="214"/>
-      <c r="O24" s="216" t="s">
+      <c r="I24" s="25"/>
+      <c r="J24" s="25"/>
+      <c r="K24" s="39"/>
+      <c r="L24" s="25"/>
+      <c r="M24" s="25"/>
+      <c r="N24" s="152"/>
+      <c r="O24" s="153" t="s">
         <v>4</v>
       </c>
-      <c r="P24" s="217" t="s">
+      <c r="P24" s="154" t="s">
         <v>111</v>
       </c>
-      <c r="Q24" s="218" t="s">
+      <c r="Q24" s="155" t="s">
         <v>216</v>
       </c>
-      <c r="R24" s="218" t="s">
+      <c r="R24" s="155" t="s">
         <v>217</v>
       </c>
-      <c r="S24" s="219" t="s">
+      <c r="S24" s="156" t="s">
         <v>215</v>
       </c>
-      <c r="T24" s="220" t="s">
+      <c r="T24" s="157" t="s">
         <v>221</v>
       </c>
-      <c r="U24" s="221" t="s">
+      <c r="U24" s="158" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="25" spans="1:21" ht="255" x14ac:dyDescent="0.2">
-      <c r="A25" s="17">
-        <v>1</v>
-      </c>
-      <c r="B25" s="156" t="s">
+      <c r="A25" s="15">
+        <v>1</v>
+      </c>
+      <c r="B25" s="173" t="s">
         <v>37</v>
       </c>
-      <c r="C25" s="156" t="s">
+      <c r="C25" s="173" t="s">
         <v>65</v>
       </c>
       <c r="D25" s="3">
         <v>0</v>
       </c>
-      <c r="E25" s="16">
+      <c r="E25" s="14">
         <v>20</v>
       </c>
       <c r="F25" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="G25" s="34" t="s">
+      <c r="G25" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="H25" s="37" t="s">
+      <c r="H25" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="I25" s="29">
+      <c r="I25" s="25">
         <v>20</v>
       </c>
-      <c r="J25" s="29">
+      <c r="J25" s="25">
         <v>23</v>
       </c>
-      <c r="K25" s="44"/>
-      <c r="L25" s="229">
+      <c r="K25" s="39"/>
+      <c r="L25" s="166">
         <v>20</v>
       </c>
-      <c r="M25" s="229">
+      <c r="M25" s="166">
         <v>20</v>
       </c>
-      <c r="N25" s="184">
+      <c r="N25" s="131">
         <v>20</v>
       </c>
-      <c r="O25" s="146">
+      <c r="O25" s="76">
         <v>20</v>
       </c>
       <c r="P25" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="Q25" s="94">
+      <c r="Q25" s="25">
         <v>20</v>
       </c>
-      <c r="R25" s="29">
+      <c r="R25" s="25">
         <v>23</v>
       </c>
-      <c r="S25" s="229">
+      <c r="S25" s="166">
         <v>20</v>
       </c>
-      <c r="T25" s="229">
+      <c r="T25" s="166">
         <v>20</v>
       </c>
       <c r="U25" s="1">
@@ -3372,58 +3287,58 @@
       </c>
     </row>
     <row r="26" spans="1:21" ht="153" x14ac:dyDescent="0.2">
-      <c r="A26" s="17">
+      <c r="A26" s="15">
         <v>2</v>
       </c>
-      <c r="B26" s="156"/>
-      <c r="C26" s="156"/>
+      <c r="B26" s="173"/>
+      <c r="C26" s="173"/>
       <c r="D26" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="E26" s="16">
+      <c r="E26" s="14">
         <v>6</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="G26" s="34" t="s">
+      <c r="G26" s="30" t="s">
         <v>82</v>
       </c>
-      <c r="H26" s="37" t="s">
+      <c r="H26" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="I26" s="29">
+      <c r="I26" s="25">
         <v>6</v>
       </c>
-      <c r="J26" s="29">
+      <c r="J26" s="25">
         <v>8</v>
       </c>
-      <c r="K26" s="44"/>
-      <c r="L26" s="229">
+      <c r="K26" s="39"/>
+      <c r="L26" s="166">
         <v>6</v>
       </c>
-      <c r="M26" s="229">
+      <c r="M26" s="166">
         <v>6</v>
       </c>
-      <c r="N26" s="184">
+      <c r="N26" s="131">
         <v>6</v>
       </c>
-      <c r="O26" s="146">
+      <c r="O26" s="76">
         <v>6</v>
       </c>
       <c r="P26" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="Q26" s="94">
+      <c r="Q26" s="25">
         <v>6</v>
       </c>
-      <c r="R26" s="29">
+      <c r="R26" s="25">
         <v>6</v>
       </c>
-      <c r="S26" s="229">
+      <c r="S26" s="166">
         <v>6</v>
       </c>
-      <c r="T26" s="229">
+      <c r="T26" s="166">
         <v>6</v>
       </c>
       <c r="U26" s="1">
@@ -3431,58 +3346,58 @@
       </c>
     </row>
     <row r="27" spans="1:21" ht="85" x14ac:dyDescent="0.2">
-      <c r="A27" s="17">
+      <c r="A27" s="15">
         <v>3</v>
       </c>
-      <c r="B27" s="156"/>
-      <c r="C27" s="156"/>
+      <c r="B27" s="173"/>
+      <c r="C27" s="173"/>
       <c r="D27" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="E27" s="16">
+      <c r="E27" s="14">
         <v>1</v>
       </c>
       <c r="F27" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="G27" s="34" t="s">
+      <c r="G27" s="30" t="s">
         <v>85</v>
       </c>
-      <c r="H27" s="37" t="s">
+      <c r="H27" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="I27" s="29">
-        <v>1</v>
-      </c>
-      <c r="J27" s="53" t="s">
+      <c r="I27" s="25">
+        <v>1</v>
+      </c>
+      <c r="J27" s="48" t="s">
         <v>124</v>
       </c>
-      <c r="K27" s="44"/>
-      <c r="L27" s="229">
-        <v>1</v>
-      </c>
-      <c r="M27" s="229">
-        <v>1</v>
-      </c>
-      <c r="N27" s="184">
+      <c r="K27" s="39"/>
+      <c r="L27" s="166">
+        <v>1</v>
+      </c>
+      <c r="M27" s="166">
+        <v>1</v>
+      </c>
+      <c r="N27" s="131">
         <v>3</v>
       </c>
-      <c r="O27" s="146">
+      <c r="O27" s="76">
         <v>3</v>
       </c>
       <c r="P27" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="Q27" s="29">
+      <c r="Q27" s="25">
         <v>3</v>
       </c>
-      <c r="R27" s="29">
+      <c r="R27" s="25">
         <v>3</v>
       </c>
-      <c r="S27" s="229">
+      <c r="S27" s="166">
         <v>3</v>
       </c>
-      <c r="T27" s="229">
+      <c r="T27" s="166">
         <v>3</v>
       </c>
       <c r="U27" s="1">
@@ -3490,11 +3405,11 @@
       </c>
     </row>
     <row r="28" spans="1:21" ht="100" x14ac:dyDescent="0.25">
-      <c r="A28" s="17">
+      <c r="A28" s="15">
         <v>4</v>
       </c>
-      <c r="B28" s="156"/>
-      <c r="C28" s="156"/>
+      <c r="B28" s="173"/>
+      <c r="C28" s="173"/>
       <c r="D28" s="3" t="s">
         <v>74</v>
       </c>
@@ -3504,44 +3419,44 @@
       <c r="F28" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="G28" s="34" t="s">
+      <c r="G28" s="30" t="s">
         <v>89</v>
       </c>
-      <c r="H28" s="51" t="s">
+      <c r="H28" s="46" t="s">
         <v>87</v>
       </c>
-      <c r="I28" s="29">
+      <c r="I28" s="25">
         <v>12</v>
       </c>
-      <c r="J28" s="29">
+      <c r="J28" s="25">
         <v>12</v>
       </c>
-      <c r="K28" s="44"/>
-      <c r="L28" s="229">
+      <c r="K28" s="39"/>
+      <c r="L28" s="166">
         <v>12</v>
       </c>
-      <c r="M28" s="229">
+      <c r="M28" s="166">
         <v>12</v>
       </c>
-      <c r="N28" s="184">
+      <c r="N28" s="131">
         <v>2</v>
       </c>
-      <c r="O28" s="146">
+      <c r="O28" s="76">
         <v>2</v>
       </c>
-      <c r="P28" s="32" t="s">
+      <c r="P28" s="28" t="s">
         <v>113</v>
       </c>
-      <c r="Q28" s="29">
+      <c r="Q28" s="25">
         <v>2</v>
       </c>
-      <c r="R28" s="29">
+      <c r="R28" s="25">
         <v>2</v>
       </c>
-      <c r="S28" s="229">
+      <c r="S28" s="166">
         <v>2</v>
       </c>
-      <c r="T28" s="229">
+      <c r="T28" s="166">
         <v>2</v>
       </c>
       <c r="U28" s="1">
@@ -3549,11 +3464,11 @@
       </c>
     </row>
     <row r="29" spans="1:21" ht="51" x14ac:dyDescent="0.2">
-      <c r="A29" s="17">
+      <c r="A29" s="15">
         <v>5</v>
       </c>
-      <c r="B29" s="156"/>
-      <c r="C29" s="156"/>
+      <c r="B29" s="173"/>
+      <c r="C29" s="173"/>
       <c r="D29" s="3" t="s">
         <v>75</v>
       </c>
@@ -3563,44 +3478,44 @@
       <c r="F29" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="G29" s="34" t="s">
+      <c r="G29" s="30" t="s">
         <v>90</v>
       </c>
-      <c r="H29" s="37" t="s">
+      <c r="H29" s="33" t="s">
         <v>91</v>
       </c>
-      <c r="I29" s="29">
+      <c r="I29" s="25">
         <v>15</v>
       </c>
-      <c r="J29" s="29">
+      <c r="J29" s="25">
         <v>15</v>
       </c>
-      <c r="K29" s="44"/>
-      <c r="L29" s="229">
+      <c r="K29" s="39"/>
+      <c r="L29" s="166">
         <v>15</v>
       </c>
-      <c r="M29" s="229">
+      <c r="M29" s="166">
         <v>15</v>
       </c>
-      <c r="N29" s="184">
+      <c r="N29" s="131">
         <v>9</v>
       </c>
-      <c r="O29" s="146">
+      <c r="O29" s="76">
         <v>9</v>
       </c>
-      <c r="P29" s="4" t="s">
+      <c r="P29" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="Q29" s="29">
+      <c r="Q29" s="25">
         <v>9</v>
       </c>
-      <c r="R29" s="29">
+      <c r="R29" s="25">
         <v>9</v>
       </c>
-      <c r="S29" s="229">
+      <c r="S29" s="166">
         <v>9</v>
       </c>
-      <c r="T29" s="229">
+      <c r="T29" s="166">
         <v>9</v>
       </c>
       <c r="U29" s="1">
@@ -3608,11 +3523,11 @@
       </c>
     </row>
     <row r="30" spans="1:21" ht="85" x14ac:dyDescent="0.2">
-      <c r="A30" s="17">
+      <c r="A30" s="15">
         <v>6</v>
       </c>
-      <c r="B30" s="156"/>
-      <c r="C30" s="156"/>
+      <c r="B30" s="173"/>
+      <c r="C30" s="173"/>
       <c r="D30" s="3" t="s">
         <v>76</v>
       </c>
@@ -3622,44 +3537,44 @@
       <c r="F30" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="G30" s="34" t="s">
+      <c r="G30" s="30" t="s">
         <v>92</v>
       </c>
-      <c r="H30" s="37" t="s">
+      <c r="H30" s="33" t="s">
         <v>93</v>
       </c>
-      <c r="I30" s="29">
-        <v>1</v>
-      </c>
-      <c r="J30" s="29">
-        <v>1</v>
-      </c>
-      <c r="K30" s="44"/>
-      <c r="L30" s="229">
-        <v>1</v>
-      </c>
-      <c r="M30" s="229">
-        <v>1</v>
-      </c>
-      <c r="N30" s="184">
-        <v>1</v>
-      </c>
-      <c r="O30" s="146">
-        <v>1</v>
-      </c>
-      <c r="P30" s="4" t="s">
+      <c r="I30" s="25">
+        <v>1</v>
+      </c>
+      <c r="J30" s="25">
+        <v>1</v>
+      </c>
+      <c r="K30" s="39"/>
+      <c r="L30" s="166">
+        <v>1</v>
+      </c>
+      <c r="M30" s="166">
+        <v>1</v>
+      </c>
+      <c r="N30" s="131">
+        <v>1</v>
+      </c>
+      <c r="O30" s="76">
+        <v>1</v>
+      </c>
+      <c r="P30" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="Q30" s="29">
-        <v>1</v>
-      </c>
-      <c r="R30" s="29">
-        <v>1</v>
-      </c>
-      <c r="S30" s="229">
-        <v>1</v>
-      </c>
-      <c r="T30" s="229">
+      <c r="Q30" s="25">
+        <v>1</v>
+      </c>
+      <c r="R30" s="25">
+        <v>1</v>
+      </c>
+      <c r="S30" s="166">
+        <v>1</v>
+      </c>
+      <c r="T30" s="166">
         <v>1</v>
       </c>
       <c r="U30" s="1">
@@ -3667,11 +3582,11 @@
       </c>
     </row>
     <row r="31" spans="1:21" ht="68" x14ac:dyDescent="0.2">
-      <c r="A31" s="17">
+      <c r="A31" s="15">
         <v>7</v>
       </c>
-      <c r="B31" s="156"/>
-      <c r="C31" s="156"/>
+      <c r="B31" s="173"/>
+      <c r="C31" s="173"/>
       <c r="D31" s="3" t="s">
         <v>77</v>
       </c>
@@ -3681,44 +3596,44 @@
       <c r="F31" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="G31" s="34" t="s">
+      <c r="G31" s="30" t="s">
         <v>94</v>
       </c>
-      <c r="H31" s="37" t="s">
+      <c r="H31" s="33" t="s">
         <v>95</v>
       </c>
-      <c r="I31" s="29">
+      <c r="I31" s="25">
         <v>2</v>
       </c>
-      <c r="J31" s="29">
+      <c r="J31" s="25">
         <v>2</v>
       </c>
-      <c r="K31" s="44"/>
-      <c r="L31" s="229">
+      <c r="K31" s="39"/>
+      <c r="L31" s="166">
         <v>2</v>
       </c>
-      <c r="M31" s="229">
+      <c r="M31" s="166">
         <v>2</v>
       </c>
-      <c r="N31" s="184">
+      <c r="N31" s="131">
         <v>2</v>
       </c>
-      <c r="O31" s="146">
+      <c r="O31" s="76">
         <v>2</v>
       </c>
-      <c r="P31" s="4" t="s">
+      <c r="P31" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="Q31" s="29">
+      <c r="Q31" s="25">
         <v>2</v>
       </c>
-      <c r="R31" s="94">
+      <c r="R31" s="25">
         <v>2</v>
       </c>
-      <c r="S31" s="229">
+      <c r="S31" s="166">
         <v>2</v>
       </c>
-      <c r="T31" s="229">
+      <c r="T31" s="166">
         <v>2</v>
       </c>
       <c r="U31" s="1">
@@ -3726,11 +3641,11 @@
       </c>
     </row>
     <row r="32" spans="1:21" ht="51" x14ac:dyDescent="0.2">
-      <c r="A32" s="17">
+      <c r="A32" s="15">
         <v>8</v>
       </c>
-      <c r="B32" s="156"/>
-      <c r="C32" s="156"/>
+      <c r="B32" s="173"/>
+      <c r="C32" s="173"/>
       <c r="D32" s="3" t="s">
         <v>78</v>
       </c>
@@ -3740,44 +3655,44 @@
       <c r="F32" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="G32" s="34" t="s">
+      <c r="G32" s="30" t="s">
         <v>96</v>
       </c>
-      <c r="H32" s="37" t="s">
+      <c r="H32" s="33" t="s">
         <v>105</v>
       </c>
-      <c r="I32" s="29">
-        <v>1</v>
-      </c>
-      <c r="J32" s="29">
-        <v>1</v>
-      </c>
-      <c r="K32" s="44"/>
-      <c r="L32" s="229">
-        <v>1</v>
-      </c>
-      <c r="M32" s="229">
-        <v>1</v>
-      </c>
-      <c r="N32" s="184">
-        <v>1</v>
-      </c>
-      <c r="O32" s="146">
-        <v>1</v>
-      </c>
-      <c r="P32" s="4" t="s">
+      <c r="I32" s="25">
+        <v>1</v>
+      </c>
+      <c r="J32" s="25">
+        <v>1</v>
+      </c>
+      <c r="K32" s="39"/>
+      <c r="L32" s="166">
+        <v>1</v>
+      </c>
+      <c r="M32" s="166">
+        <v>1</v>
+      </c>
+      <c r="N32" s="131">
+        <v>1</v>
+      </c>
+      <c r="O32" s="76">
+        <v>1</v>
+      </c>
+      <c r="P32" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="Q32" s="29">
-        <v>1</v>
-      </c>
-      <c r="R32" s="29">
-        <v>1</v>
-      </c>
-      <c r="S32" s="229">
-        <v>1</v>
-      </c>
-      <c r="T32" s="229">
+      <c r="Q32" s="25">
+        <v>1</v>
+      </c>
+      <c r="R32" s="25">
+        <v>1</v>
+      </c>
+      <c r="S32" s="166">
+        <v>1</v>
+      </c>
+      <c r="T32" s="166">
         <v>1</v>
       </c>
       <c r="U32" s="1">
@@ -3785,11 +3700,11 @@
       </c>
     </row>
     <row r="33" spans="1:21" ht="69" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="17">
+      <c r="A33" s="15">
         <v>9</v>
       </c>
-      <c r="B33" s="156"/>
-      <c r="C33" s="156"/>
+      <c r="B33" s="173"/>
+      <c r="C33" s="173"/>
       <c r="D33" s="3" t="s">
         <v>79</v>
       </c>
@@ -3799,44 +3714,44 @@
       <c r="F33" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="G33" s="34" t="s">
+      <c r="G33" s="30" t="s">
         <v>97</v>
       </c>
-      <c r="H33" s="39" t="s">
+      <c r="H33" s="34" t="s">
         <v>98</v>
       </c>
-      <c r="I33" s="55">
-        <v>1</v>
-      </c>
-      <c r="J33" s="55">
-        <v>1</v>
-      </c>
-      <c r="K33" s="56"/>
-      <c r="L33" s="229">
-        <v>1</v>
-      </c>
-      <c r="M33" s="229">
-        <v>1</v>
-      </c>
-      <c r="N33" s="184">
-        <v>1</v>
-      </c>
-      <c r="O33" s="146">
-        <v>1</v>
-      </c>
-      <c r="P33" s="4" t="s">
+      <c r="I33" s="49">
+        <v>1</v>
+      </c>
+      <c r="J33" s="49">
+        <v>1</v>
+      </c>
+      <c r="K33" s="50"/>
+      <c r="L33" s="166">
+        <v>1</v>
+      </c>
+      <c r="M33" s="166">
+        <v>1</v>
+      </c>
+      <c r="N33" s="131">
+        <v>1</v>
+      </c>
+      <c r="O33" s="76">
+        <v>1</v>
+      </c>
+      <c r="P33" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="Q33" s="29">
-        <v>1</v>
-      </c>
-      <c r="R33" s="29">
-        <v>1</v>
-      </c>
-      <c r="S33" s="229">
-        <v>1</v>
-      </c>
-      <c r="T33" s="229">
+      <c r="Q33" s="25">
+        <v>1</v>
+      </c>
+      <c r="R33" s="25">
+        <v>1</v>
+      </c>
+      <c r="S33" s="166">
+        <v>1</v>
+      </c>
+      <c r="T33" s="166">
         <v>1</v>
       </c>
       <c r="U33" s="1">
@@ -3844,309 +3759,309 @@
       </c>
     </row>
     <row r="34" spans="1:21" ht="69" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="64">
+      <c r="A34" s="57">
         <v>10</v>
       </c>
-      <c r="B34" s="157"/>
-      <c r="C34" s="157"/>
-      <c r="D34" s="20" t="s">
+      <c r="B34" s="190"/>
+      <c r="C34" s="190"/>
+      <c r="D34" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="E34" s="20">
+      <c r="E34" s="18">
         <v>5</v>
       </c>
-      <c r="F34" s="20" t="s">
+      <c r="F34" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="G34" s="36" t="s">
+      <c r="G34" s="32" t="s">
         <v>99</v>
       </c>
-      <c r="H34" s="65" t="s">
+      <c r="H34" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="I34" s="72">
+      <c r="I34" s="63">
         <v>5</v>
       </c>
-      <c r="J34" s="72">
+      <c r="J34" s="63">
         <v>5</v>
       </c>
-      <c r="K34" s="101"/>
-      <c r="L34" s="229">
+      <c r="K34" s="87"/>
+      <c r="L34" s="166">
         <v>5</v>
       </c>
-      <c r="M34" s="232">
+      <c r="M34" s="169">
         <v>5</v>
       </c>
-      <c r="N34" s="185">
+      <c r="N34" s="132">
         <v>4</v>
       </c>
-      <c r="O34" s="190">
+      <c r="O34" s="77">
         <v>4</v>
       </c>
-      <c r="P34" s="191" t="s">
+      <c r="P34" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="Q34" s="29">
+      <c r="Q34" s="25">
         <v>4</v>
       </c>
-      <c r="R34" s="29">
+      <c r="R34" s="25">
         <v>4</v>
       </c>
-      <c r="S34" s="229">
+      <c r="S34" s="166">
         <v>4</v>
       </c>
-      <c r="T34" s="229">
+      <c r="T34" s="166">
         <v>4</v>
       </c>
-      <c r="U34" s="192">
+      <c r="U34" s="72">
         <v>7</v>
       </c>
     </row>
     <row r="35" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="73"/>
-      <c r="B35" s="74"/>
-      <c r="C35" s="74"/>
-      <c r="D35" s="75"/>
-      <c r="E35" s="75"/>
-      <c r="F35" s="75"/>
-      <c r="G35" s="112"/>
-      <c r="H35" s="76"/>
-      <c r="I35" s="110"/>
-      <c r="J35" s="111"/>
-      <c r="K35" s="70"/>
-      <c r="L35" s="193"/>
-      <c r="M35" s="88"/>
-      <c r="N35" s="186"/>
-      <c r="O35" s="141"/>
-      <c r="P35" s="187"/>
-      <c r="Q35" s="142"/>
-      <c r="R35" s="142"/>
-      <c r="S35" s="142"/>
+      <c r="A35" s="64"/>
+      <c r="B35" s="65"/>
+      <c r="C35" s="65"/>
+      <c r="D35" s="66"/>
+      <c r="E35" s="66"/>
+      <c r="F35" s="66"/>
+      <c r="G35" s="98"/>
+      <c r="H35" s="67"/>
+      <c r="I35" s="96"/>
+      <c r="J35" s="97"/>
+      <c r="K35" s="62"/>
+      <c r="L35" s="135"/>
+      <c r="M35" s="78"/>
+      <c r="N35" s="133"/>
+      <c r="O35" s="123"/>
+      <c r="P35" s="134"/>
+      <c r="Q35" s="123"/>
+      <c r="R35" s="123"/>
+      <c r="S35" s="123"/>
     </row>
     <row r="36" spans="1:21" ht="79" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="168" t="s">
+      <c r="A36" s="177" t="s">
         <v>125</v>
       </c>
-      <c r="B36" s="169"/>
-      <c r="C36" s="170"/>
-      <c r="D36" s="66"/>
-      <c r="E36" s="66"/>
-      <c r="F36" s="66"/>
-      <c r="G36" s="66"/>
-      <c r="H36" s="66"/>
-      <c r="I36" s="166" t="s">
+      <c r="B36" s="178"/>
+      <c r="C36" s="179"/>
+      <c r="D36" s="59"/>
+      <c r="E36" s="59"/>
+      <c r="F36" s="59"/>
+      <c r="G36" s="59"/>
+      <c r="H36" s="59"/>
+      <c r="I36" s="175" t="s">
         <v>200</v>
       </c>
-      <c r="J36" s="167"/>
-      <c r="K36" s="102"/>
-      <c r="L36" s="177" t="s">
+      <c r="J36" s="176"/>
+      <c r="K36" s="88"/>
+      <c r="L36" s="185" t="s">
         <v>202</v>
       </c>
-      <c r="M36" s="178"/>
-      <c r="N36" s="178"/>
-      <c r="O36" s="175" t="s">
+      <c r="M36" s="186"/>
+      <c r="N36" s="186"/>
+      <c r="O36" s="177" t="s">
         <v>203</v>
       </c>
-      <c r="P36" s="176"/>
-      <c r="Q36" s="153" t="s">
+      <c r="P36" s="184"/>
+      <c r="Q36" s="170" t="s">
         <v>207</v>
       </c>
-      <c r="R36" s="154"/>
-      <c r="S36" s="155"/>
+      <c r="R36" s="171"/>
+      <c r="S36" s="172"/>
     </row>
     <row r="37" spans="1:21" ht="38" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="117" t="s">
+      <c r="A37" s="101" t="s">
         <v>201</v>
       </c>
-      <c r="B37" s="91">
+      <c r="B37" s="81">
         <v>16362</v>
       </c>
-      <c r="C37" s="118"/>
-      <c r="D37" s="67"/>
-      <c r="E37" s="67"/>
-      <c r="F37" s="67"/>
-      <c r="G37" s="67"/>
-      <c r="H37" s="67"/>
-      <c r="I37" s="89"/>
-      <c r="J37" s="90"/>
-      <c r="K37" s="102"/>
-      <c r="L37" s="113"/>
-      <c r="M37" s="114"/>
-      <c r="N37" s="143"/>
-      <c r="O37" s="144"/>
-      <c r="P37" s="115"/>
-      <c r="Q37" s="146"/>
-      <c r="R37" s="29"/>
+      <c r="C37" s="102"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="13"/>
+      <c r="H37" s="13"/>
+      <c r="I37" s="79"/>
+      <c r="J37" s="80"/>
+      <c r="K37" s="88"/>
+      <c r="L37" s="99"/>
+      <c r="M37" s="2"/>
+      <c r="N37" s="124"/>
+      <c r="O37" s="99"/>
+      <c r="P37" s="100"/>
+      <c r="Q37" s="76"/>
+      <c r="R37" s="25"/>
       <c r="S37" s="1"/>
     </row>
     <row r="38" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="119" t="s">
+      <c r="A38" s="103" t="s">
         <v>31</v>
       </c>
-      <c r="B38" s="92">
+      <c r="B38" s="82">
         <v>55607</v>
       </c>
-      <c r="C38" s="120"/>
-      <c r="D38" s="67"/>
-      <c r="E38" s="67"/>
-      <c r="F38" s="67"/>
-      <c r="G38" s="67"/>
-      <c r="H38" s="67"/>
-      <c r="I38" s="50" t="s">
+      <c r="C38" s="104"/>
+      <c r="D38" s="13"/>
+      <c r="E38" s="13"/>
+      <c r="F38" s="13"/>
+      <c r="G38" s="13"/>
+      <c r="H38" s="13"/>
+      <c r="I38" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="J38" s="80" t="s">
+      <c r="J38" s="71" t="s">
         <v>198</v>
       </c>
-      <c r="K38" s="70"/>
-      <c r="L38" s="107"/>
-      <c r="M38" s="105" t="s">
+      <c r="K38" s="62"/>
+      <c r="L38" s="93"/>
+      <c r="M38" s="91" t="s">
         <v>7</v>
       </c>
-      <c r="N38" s="108" t="s">
+      <c r="N38" s="94" t="s">
         <v>198</v>
       </c>
-      <c r="O38" s="105" t="s">
+      <c r="O38" s="91" t="s">
         <v>7</v>
       </c>
-      <c r="P38" s="130" t="s">
+      <c r="P38" s="113" t="s">
         <v>198</v>
       </c>
-      <c r="Q38" s="50" t="s">
+      <c r="Q38" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="R38" s="132" t="s">
+      <c r="R38" s="14" t="s">
         <v>198</v>
       </c>
       <c r="S38" s="1"/>
-      <c r="T38" s="50" t="s">
+      <c r="T38" s="45" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="39" spans="1:21" ht="35" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="121" t="s">
+      <c r="A39" s="105" t="s">
         <v>69</v>
       </c>
-      <c r="B39" s="122" t="s">
+      <c r="B39" s="106" t="s">
         <v>0</v>
       </c>
-      <c r="C39" s="123" t="s">
+      <c r="C39" s="107" t="s">
         <v>2</v>
       </c>
-      <c r="D39" s="124" t="s">
+      <c r="D39" s="108" t="s">
         <v>130</v>
       </c>
-      <c r="E39" s="125" t="s">
+      <c r="E39" s="109" t="s">
         <v>4</v>
       </c>
-      <c r="F39" s="126" t="s">
+      <c r="F39" s="109" t="s">
         <v>17</v>
       </c>
-      <c r="G39" s="127" t="s">
+      <c r="G39" s="110" t="s">
         <v>22</v>
       </c>
-      <c r="H39" s="128" t="s">
+      <c r="H39" s="111" t="s">
         <v>18</v>
       </c>
-      <c r="I39" s="105" t="s">
+      <c r="I39" s="91" t="s">
         <v>199</v>
       </c>
-      <c r="J39" s="106" t="s">
+      <c r="J39" s="92" t="s">
         <v>199</v>
       </c>
-      <c r="K39" s="70"/>
-      <c r="L39" s="136" t="s">
+      <c r="K39" s="62"/>
+      <c r="L39" s="118" t="s">
         <v>204</v>
       </c>
-      <c r="M39" s="137" t="s">
+      <c r="M39" s="119" t="s">
         <v>199</v>
       </c>
-      <c r="N39" s="138" t="s">
+      <c r="N39" s="120" t="s">
         <v>199</v>
       </c>
-      <c r="O39" s="145" t="s">
+      <c r="O39" s="105" t="s">
         <v>199</v>
       </c>
-      <c r="P39" s="139" t="s">
+      <c r="P39" s="121" t="s">
         <v>199</v>
       </c>
-      <c r="Q39" s="105" t="s">
+      <c r="Q39" s="91" t="s">
         <v>199</v>
       </c>
-      <c r="R39" s="109" t="s">
+      <c r="R39" s="95" t="s">
         <v>199</v>
       </c>
-      <c r="S39" s="147" t="s">
+      <c r="S39" s="125" t="s">
         <v>69</v>
       </c>
-      <c r="T39" s="109" t="s">
+      <c r="T39" s="95" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="40" spans="1:21" ht="98" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="77">
-        <v>1</v>
-      </c>
-      <c r="B40" s="171" t="s">
+      <c r="A40" s="68">
+        <v>1</v>
+      </c>
+      <c r="B40" s="180" t="s">
         <v>127</v>
       </c>
-      <c r="C40" s="174" t="s">
+      <c r="C40" s="183" t="s">
         <v>196</v>
       </c>
-      <c r="D40" s="78" t="s">
+      <c r="D40" s="69" t="s">
         <v>126</v>
       </c>
-      <c r="E40" s="78">
+      <c r="E40" s="69">
         <v>353</v>
       </c>
-      <c r="F40" s="78" t="s">
+      <c r="F40" s="69" t="s">
         <v>180</v>
       </c>
-      <c r="G40" s="79" t="s">
+      <c r="G40" s="70" t="s">
         <v>129</v>
       </c>
-      <c r="H40" s="82" t="s">
+      <c r="H40" s="73" t="s">
         <v>128</v>
       </c>
-      <c r="I40" s="103">
+      <c r="I40" s="89">
         <v>630</v>
       </c>
-      <c r="J40" s="104">
+      <c r="J40" s="90">
         <v>630</v>
       </c>
-      <c r="K40" s="93"/>
-      <c r="L40" s="179" t="s">
+      <c r="K40" s="83"/>
+      <c r="L40" s="187" t="s">
         <v>205</v>
       </c>
-      <c r="M40" s="133">
+      <c r="M40" s="115">
         <v>76</v>
       </c>
-      <c r="N40" s="134">
+      <c r="N40" s="116">
         <v>76</v>
       </c>
-      <c r="O40" s="135">
+      <c r="O40" s="117">
         <v>76</v>
       </c>
-      <c r="P40" s="57">
+      <c r="P40">
         <v>76</v>
       </c>
-      <c r="Q40" s="135">
+      <c r="Q40" s="117">
         <v>347</v>
       </c>
-      <c r="R40" s="135">
+      <c r="R40" s="117">
         <v>347</v>
       </c>
-      <c r="S40" s="148">
+      <c r="S40" s="126">
         <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:21" ht="51" x14ac:dyDescent="0.2">
-      <c r="A41" s="68">
+      <c r="A41" s="60">
         <v>2</v>
       </c>
-      <c r="B41" s="172"/>
-      <c r="C41" s="156"/>
-      <c r="D41" s="156" t="s">
+      <c r="B41" s="181"/>
+      <c r="C41" s="173"/>
+      <c r="D41" s="173" t="s">
         <v>197</v>
       </c>
       <c r="E41" s="3">
@@ -4158,46 +4073,46 @@
       <c r="G41" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="H41" s="83" t="s">
+      <c r="H41" s="74" t="s">
         <v>132</v>
       </c>
-      <c r="I41" s="86">
+      <c r="I41" s="76">
         <v>31</v>
       </c>
-      <c r="J41" s="85">
+      <c r="J41" s="1">
         <v>32</v>
       </c>
-      <c r="K41" s="93"/>
-      <c r="L41" s="180"/>
-      <c r="M41" s="98">
+      <c r="K41" s="83"/>
+      <c r="L41" s="188"/>
+      <c r="M41" s="84">
         <v>2</v>
       </c>
-      <c r="N41" s="96">
+      <c r="N41" s="35">
         <v>2</v>
       </c>
-      <c r="O41" s="94">
+      <c r="O41" s="25">
         <v>2</v>
       </c>
-      <c r="P41" s="57">
+      <c r="P41">
         <v>2</v>
       </c>
-      <c r="Q41" s="94">
+      <c r="Q41" s="25">
         <v>3</v>
       </c>
-      <c r="R41" s="94">
+      <c r="R41" s="25">
         <v>2</v>
       </c>
-      <c r="S41" s="149">
+      <c r="S41" s="127">
         <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:21" ht="88" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="68">
+      <c r="A42" s="60">
         <v>3</v>
       </c>
-      <c r="B42" s="172"/>
-      <c r="C42" s="156"/>
-      <c r="D42" s="156"/>
+      <c r="B42" s="181"/>
+      <c r="C42" s="173"/>
+      <c r="D42" s="173"/>
       <c r="E42" s="3">
         <v>141</v>
       </c>
@@ -4207,46 +4122,46 @@
       <c r="G42" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="H42" s="83" t="s">
+      <c r="H42" s="74" t="s">
         <v>134</v>
       </c>
-      <c r="I42" s="86">
+      <c r="I42" s="76">
         <v>29</v>
       </c>
-      <c r="J42" s="85">
+      <c r="J42" s="1">
         <v>181</v>
       </c>
-      <c r="K42" s="93"/>
-      <c r="L42" s="180"/>
-      <c r="M42" s="98">
+      <c r="K42" s="83"/>
+      <c r="L42" s="188"/>
+      <c r="M42" s="84">
         <v>37</v>
       </c>
-      <c r="N42" s="96">
+      <c r="N42" s="35">
         <v>102</v>
       </c>
-      <c r="O42" s="94">
+      <c r="O42" s="25">
         <v>37</v>
       </c>
-      <c r="P42" s="57">
+      <c r="P42">
         <v>102</v>
       </c>
-      <c r="Q42" s="94">
+      <c r="Q42" s="25">
         <v>200</v>
       </c>
-      <c r="R42" s="94">
+      <c r="R42" s="25">
         <v>128</v>
       </c>
-      <c r="S42" s="149">
+      <c r="S42" s="127">
         <v>3</v>
       </c>
     </row>
     <row r="43" spans="1:21" ht="68" x14ac:dyDescent="0.2">
-      <c r="A43" s="68">
+      <c r="A43" s="60">
         <v>4</v>
       </c>
-      <c r="B43" s="172"/>
-      <c r="C43" s="156"/>
-      <c r="D43" s="156"/>
+      <c r="B43" s="181"/>
+      <c r="C43" s="173"/>
+      <c r="D43" s="173"/>
       <c r="E43" s="3">
         <v>3</v>
       </c>
@@ -4256,46 +4171,46 @@
       <c r="G43" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="H43" s="83" t="s">
+      <c r="H43" s="74" t="s">
         <v>136</v>
       </c>
-      <c r="I43" s="86">
+      <c r="I43" s="76">
         <v>21</v>
       </c>
-      <c r="J43" s="85">
+      <c r="J43" s="1">
         <v>13</v>
       </c>
-      <c r="K43" s="93"/>
-      <c r="L43" s="180"/>
-      <c r="M43" s="98">
+      <c r="K43" s="83"/>
+      <c r="L43" s="188"/>
+      <c r="M43" s="84">
         <v>37</v>
       </c>
-      <c r="N43" s="96">
+      <c r="N43" s="35">
         <v>3</v>
       </c>
-      <c r="O43" s="94">
+      <c r="O43" s="25">
         <v>37</v>
       </c>
-      <c r="P43" s="57">
+      <c r="P43">
         <v>3</v>
       </c>
-      <c r="Q43" s="94">
+      <c r="Q43" s="25">
         <v>65</v>
       </c>
-      <c r="R43" s="94">
+      <c r="R43" s="25">
         <v>12</v>
       </c>
-      <c r="S43" s="149">
+      <c r="S43" s="127">
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:21" ht="68" x14ac:dyDescent="0.2">
-      <c r="A44" s="68">
+    <row r="44" spans="1:21" ht="102" x14ac:dyDescent="0.2">
+      <c r="A44" s="60">
         <v>5</v>
       </c>
-      <c r="B44" s="172"/>
-      <c r="C44" s="156"/>
-      <c r="D44" s="156"/>
+      <c r="B44" s="181"/>
+      <c r="C44" s="173"/>
+      <c r="D44" s="173"/>
       <c r="E44" s="3">
         <v>1</v>
       </c>
@@ -4305,48 +4220,48 @@
       <c r="G44" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="H44" s="83" t="s">
+      <c r="H44" s="74" t="s">
         <v>138</v>
       </c>
-      <c r="I44" s="86">
+      <c r="I44" s="76">
         <v>24</v>
       </c>
-      <c r="J44" s="85">
+      <c r="J44" s="1">
         <v>3</v>
       </c>
-      <c r="K44" s="93"/>
-      <c r="L44" s="100" t="s">
+      <c r="K44" s="83"/>
+      <c r="L44" s="86" t="s">
         <v>206</v>
       </c>
-      <c r="M44" s="98">
-        <v>1</v>
-      </c>
-      <c r="N44" s="96">
-        <v>1</v>
-      </c>
-      <c r="O44" s="94">
-        <v>1</v>
-      </c>
-      <c r="P44" s="57">
-        <v>1</v>
-      </c>
-      <c r="Q44" s="94">
-        <v>1</v>
-      </c>
-      <c r="R44" s="94">
-        <v>1</v>
-      </c>
-      <c r="S44" s="149">
+      <c r="M44" s="84">
+        <v>1</v>
+      </c>
+      <c r="N44" s="35">
+        <v>1</v>
+      </c>
+      <c r="O44" s="25">
+        <v>1</v>
+      </c>
+      <c r="P44">
+        <v>1</v>
+      </c>
+      <c r="Q44" s="25">
+        <v>1</v>
+      </c>
+      <c r="R44" s="25">
+        <v>1</v>
+      </c>
+      <c r="S44" s="127">
         <v>5</v>
       </c>
     </row>
     <row r="45" spans="1:21" ht="68" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="68">
+      <c r="A45" s="60">
         <v>6</v>
       </c>
-      <c r="B45" s="172"/>
-      <c r="C45" s="156"/>
-      <c r="D45" s="156"/>
+      <c r="B45" s="181"/>
+      <c r="C45" s="173"/>
+      <c r="D45" s="173"/>
       <c r="E45" s="3">
         <v>2</v>
       </c>
@@ -4356,48 +4271,48 @@
       <c r="G45" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="H45" s="83" t="s">
+      <c r="H45" s="74" t="s">
         <v>142</v>
       </c>
-      <c r="I45" s="86">
+      <c r="I45" s="76">
         <v>6</v>
       </c>
-      <c r="J45" s="85">
+      <c r="J45" s="1">
         <v>2</v>
       </c>
-      <c r="K45" s="93"/>
-      <c r="L45" s="151" t="s">
+      <c r="K45" s="83"/>
+      <c r="L45" s="197" t="s">
         <v>205</v>
       </c>
-      <c r="M45" s="98">
+      <c r="M45" s="84">
         <v>2</v>
       </c>
-      <c r="N45" s="96">
+      <c r="N45" s="35">
         <v>2</v>
       </c>
-      <c r="O45" s="94">
+      <c r="O45" s="25">
         <v>2</v>
       </c>
-      <c r="P45" s="57">
+      <c r="P45">
         <v>2</v>
       </c>
-      <c r="Q45" s="94">
+      <c r="Q45" s="25">
         <v>3</v>
       </c>
-      <c r="R45" s="94">
+      <c r="R45" s="25">
         <v>2</v>
       </c>
-      <c r="S45" s="149">
+      <c r="S45" s="127">
         <v>6</v>
       </c>
     </row>
     <row r="46" spans="1:21" ht="51" x14ac:dyDescent="0.2">
-      <c r="A46" s="68">
+      <c r="A46" s="60">
         <v>7</v>
       </c>
-      <c r="B46" s="172"/>
-      <c r="C46" s="156"/>
-      <c r="D46" s="156"/>
+      <c r="B46" s="181"/>
+      <c r="C46" s="173"/>
+      <c r="D46" s="173"/>
       <c r="E46" s="3">
         <v>193</v>
       </c>
@@ -4407,46 +4322,46 @@
       <c r="G46" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="H46" s="83" t="s">
+      <c r="H46" s="74" t="s">
         <v>144</v>
       </c>
-      <c r="I46" s="86">
+      <c r="I46" s="76">
         <v>197</v>
       </c>
-      <c r="J46" s="85">
+      <c r="J46" s="1">
         <v>292</v>
       </c>
-      <c r="K46" s="93"/>
-      <c r="L46" s="152"/>
-      <c r="M46" s="98">
+      <c r="K46" s="83"/>
+      <c r="L46" s="198"/>
+      <c r="M46" s="84">
         <v>6</v>
       </c>
-      <c r="N46" s="96">
+      <c r="N46" s="35">
         <v>56</v>
       </c>
-      <c r="O46" s="94">
+      <c r="O46" s="25">
         <v>6</v>
       </c>
-      <c r="P46" s="57">
+      <c r="P46">
         <v>56</v>
       </c>
-      <c r="Q46" s="94">
+      <c r="Q46" s="25">
         <v>189</v>
       </c>
-      <c r="R46" s="94">
+      <c r="R46" s="25">
         <v>179</v>
       </c>
-      <c r="S46" s="149">
+      <c r="S46" s="127">
         <v>7</v>
       </c>
     </row>
     <row r="47" spans="1:21" ht="69" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="68">
+      <c r="A47" s="60">
         <v>8</v>
       </c>
-      <c r="B47" s="172"/>
-      <c r="C47" s="156"/>
-      <c r="D47" s="156"/>
+      <c r="B47" s="181"/>
+      <c r="C47" s="173"/>
+      <c r="D47" s="173"/>
       <c r="E47" s="3">
         <v>143</v>
       </c>
@@ -4456,46 +4371,46 @@
       <c r="G47" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="H47" s="83" t="s">
+      <c r="H47" s="74" t="s">
         <v>146</v>
       </c>
-      <c r="I47" s="86">
+      <c r="I47" s="76">
         <v>76</v>
       </c>
-      <c r="J47" s="85">
+      <c r="J47" s="1">
         <v>18</v>
       </c>
-      <c r="K47" s="93"/>
-      <c r="L47" s="152"/>
-      <c r="M47" s="99">
+      <c r="K47" s="83"/>
+      <c r="L47" s="198"/>
+      <c r="M47" s="85">
         <v>37</v>
       </c>
-      <c r="N47" s="97">
+      <c r="N47" s="55">
         <v>38</v>
       </c>
-      <c r="O47" s="116">
+      <c r="O47" s="47">
         <v>37</v>
       </c>
-      <c r="P47" s="131">
+      <c r="P47" s="114">
         <v>36</v>
       </c>
-      <c r="Q47" s="94">
+      <c r="Q47" s="25">
         <v>81</v>
       </c>
-      <c r="R47" s="94">
+      <c r="R47" s="25">
         <v>140</v>
       </c>
-      <c r="S47" s="149">
+      <c r="S47" s="127">
         <v>8</v>
       </c>
     </row>
     <row r="48" spans="1:21" ht="51" x14ac:dyDescent="0.2">
-      <c r="A48" s="68">
+      <c r="A48" s="60">
         <v>9</v>
       </c>
-      <c r="B48" s="172"/>
-      <c r="C48" s="156"/>
-      <c r="D48" s="156"/>
+      <c r="B48" s="181"/>
+      <c r="C48" s="173"/>
+      <c r="D48" s="173"/>
       <c r="E48" s="3">
         <v>1</v>
       </c>
@@ -4505,37 +4420,34 @@
       <c r="G48" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="H48" s="83" t="s">
+      <c r="H48" s="74" t="s">
         <v>148</v>
       </c>
-      <c r="I48" s="86">
-        <v>1</v>
-      </c>
-      <c r="J48" s="85">
-        <v>1</v>
-      </c>
-      <c r="L48" s="152"/>
-      <c r="M48" s="129"/>
-      <c r="N48" s="57"/>
-      <c r="O48" s="38"/>
-      <c r="P48" s="38"/>
-      <c r="Q48" s="94">
+      <c r="I48" s="76">
+        <v>1</v>
+      </c>
+      <c r="J48" s="1">
+        <v>1</v>
+      </c>
+      <c r="L48" s="198"/>
+      <c r="M48" s="112"/>
+      <c r="Q48" s="25">
         <v>2</v>
       </c>
-      <c r="R48" s="94">
+      <c r="R48" s="25">
         <v>2</v>
       </c>
-      <c r="S48" s="149">
+      <c r="S48" s="127">
         <v>9</v>
       </c>
     </row>
     <row r="49" spans="1:19" ht="51" x14ac:dyDescent="0.2">
-      <c r="A49" s="68">
+      <c r="A49" s="60">
         <v>10</v>
       </c>
-      <c r="B49" s="172"/>
-      <c r="C49" s="156"/>
-      <c r="D49" s="156"/>
+      <c r="B49" s="181"/>
+      <c r="C49" s="173"/>
+      <c r="D49" s="173"/>
       <c r="E49" s="3">
         <v>3</v>
       </c>
@@ -4545,36 +4457,33 @@
       <c r="G49" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="H49" s="83" t="s">
+      <c r="H49" s="74" t="s">
         <v>151</v>
       </c>
-      <c r="I49" s="86">
+      <c r="I49" s="76">
         <v>5</v>
       </c>
-      <c r="J49" s="85">
+      <c r="J49" s="1">
         <v>2</v>
       </c>
-      <c r="L49" s="152"/>
-      <c r="N49" s="57"/>
-      <c r="O49" s="38"/>
-      <c r="P49" s="38"/>
-      <c r="Q49" s="94">
+      <c r="L49" s="198"/>
+      <c r="Q49" s="25">
         <v>3</v>
       </c>
-      <c r="R49" s="94">
+      <c r="R49" s="25">
         <v>3</v>
       </c>
-      <c r="S49" s="149">
+      <c r="S49" s="127">
         <v>10</v>
       </c>
     </row>
     <row r="50" spans="1:19" ht="68" x14ac:dyDescent="0.2">
-      <c r="A50" s="68">
+      <c r="A50" s="60">
         <v>11</v>
       </c>
-      <c r="B50" s="172"/>
-      <c r="C50" s="156"/>
-      <c r="D50" s="156"/>
+      <c r="B50" s="181"/>
+      <c r="C50" s="173"/>
+      <c r="D50" s="173"/>
       <c r="E50" s="3">
         <v>3</v>
       </c>
@@ -4584,36 +4493,33 @@
       <c r="G50" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="H50" s="83" t="s">
+      <c r="H50" s="74" t="s">
         <v>153</v>
       </c>
-      <c r="I50" s="86">
+      <c r="I50" s="76">
         <v>7</v>
       </c>
-      <c r="J50" s="85">
+      <c r="J50" s="1">
         <v>3</v>
       </c>
-      <c r="L50" s="152"/>
-      <c r="N50" s="57"/>
-      <c r="O50" s="38"/>
-      <c r="P50" s="38"/>
-      <c r="Q50" s="94">
+      <c r="L50" s="198"/>
+      <c r="Q50" s="25">
         <v>64</v>
       </c>
-      <c r="R50" s="94">
+      <c r="R50" s="25">
         <v>3</v>
       </c>
-      <c r="S50" s="149">
+      <c r="S50" s="127">
         <v>11</v>
       </c>
     </row>
     <row r="51" spans="1:19" ht="68" x14ac:dyDescent="0.2">
-      <c r="A51" s="68">
+      <c r="A51" s="60">
         <v>12</v>
       </c>
-      <c r="B51" s="172"/>
-      <c r="C51" s="156"/>
-      <c r="D51" s="156"/>
+      <c r="B51" s="181"/>
+      <c r="C51" s="173"/>
+      <c r="D51" s="173"/>
       <c r="E51" s="3">
         <v>3</v>
       </c>
@@ -4623,37 +4529,33 @@
       <c r="G51" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="H51" s="83" t="s">
+      <c r="H51" s="74" t="s">
         <v>155</v>
       </c>
-      <c r="I51" s="86">
+      <c r="I51" s="76">
         <v>23</v>
       </c>
-      <c r="J51" s="85">
+      <c r="J51" s="1">
         <v>3</v>
       </c>
-      <c r="L51" s="152"/>
-      <c r="M51" s="57"/>
-      <c r="N51" s="57"/>
-      <c r="O51" s="38"/>
-      <c r="P51" s="38"/>
-      <c r="Q51" s="94">
+      <c r="L51" s="198"/>
+      <c r="Q51" s="25">
         <v>64</v>
       </c>
-      <c r="R51" s="94">
+      <c r="R51" s="25">
         <v>3</v>
       </c>
-      <c r="S51" s="149">
+      <c r="S51" s="127">
         <v>12</v>
       </c>
     </row>
     <row r="52" spans="1:19" ht="85" x14ac:dyDescent="0.2">
-      <c r="A52" s="68">
+      <c r="A52" s="60">
         <v>13</v>
       </c>
-      <c r="B52" s="172"/>
-      <c r="C52" s="156"/>
-      <c r="D52" s="156"/>
+      <c r="B52" s="181"/>
+      <c r="C52" s="173"/>
+      <c r="D52" s="173"/>
       <c r="E52" s="3">
         <v>6</v>
       </c>
@@ -4663,37 +4565,33 @@
       <c r="G52" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="H52" s="83" t="s">
+      <c r="H52" s="74" t="s">
         <v>157</v>
       </c>
-      <c r="I52" s="86">
+      <c r="I52" s="76">
         <v>20</v>
       </c>
-      <c r="J52" s="85">
+      <c r="J52" s="1">
         <v>7</v>
       </c>
-      <c r="L52" s="152"/>
-      <c r="M52" s="57"/>
-      <c r="N52" s="57"/>
-      <c r="O52" s="38"/>
-      <c r="P52" s="38"/>
-      <c r="Q52" s="94">
+      <c r="L52" s="198"/>
+      <c r="Q52" s="25">
         <v>58</v>
       </c>
-      <c r="R52" s="94">
+      <c r="R52" s="25">
         <v>6</v>
       </c>
-      <c r="S52" s="149">
+      <c r="S52" s="127">
         <v>13</v>
       </c>
     </row>
     <row r="53" spans="1:19" ht="68" x14ac:dyDescent="0.2">
-      <c r="A53" s="68">
+      <c r="A53" s="60">
         <v>14</v>
       </c>
-      <c r="B53" s="172"/>
-      <c r="C53" s="156"/>
-      <c r="D53" s="156"/>
+      <c r="B53" s="181"/>
+      <c r="C53" s="173"/>
+      <c r="D53" s="173"/>
       <c r="E53" s="3">
         <v>3</v>
       </c>
@@ -4703,37 +4601,33 @@
       <c r="G53" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="H53" s="83" t="s">
+      <c r="H53" s="74" t="s">
         <v>159</v>
       </c>
-      <c r="I53" s="86">
+      <c r="I53" s="76">
         <v>29</v>
       </c>
-      <c r="J53" s="85">
+      <c r="J53" s="1">
         <v>3</v>
       </c>
-      <c r="L53" s="152"/>
-      <c r="M53" s="57"/>
-      <c r="N53" s="57"/>
-      <c r="O53" s="38"/>
-      <c r="P53" s="38"/>
-      <c r="Q53" s="94">
+      <c r="L53" s="198"/>
+      <c r="Q53" s="25">
         <v>3</v>
       </c>
-      <c r="R53" s="94">
+      <c r="R53" s="25">
         <v>3</v>
       </c>
-      <c r="S53" s="149">
+      <c r="S53" s="127">
         <v>14</v>
       </c>
     </row>
     <row r="54" spans="1:19" ht="51" x14ac:dyDescent="0.2">
-      <c r="A54" s="68">
+      <c r="A54" s="60">
         <v>15</v>
       </c>
-      <c r="B54" s="172"/>
-      <c r="C54" s="156"/>
-      <c r="D54" s="156"/>
+      <c r="B54" s="181"/>
+      <c r="C54" s="173"/>
+      <c r="D54" s="173"/>
       <c r="E54" s="3">
         <v>28</v>
       </c>
@@ -4743,37 +4637,33 @@
       <c r="G54" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="H54" s="83" t="s">
+      <c r="H54" s="74" t="s">
         <v>160</v>
       </c>
-      <c r="I54" s="86">
+      <c r="I54" s="76">
         <v>40</v>
       </c>
-      <c r="J54" s="85">
+      <c r="J54" s="1">
         <v>7</v>
       </c>
-      <c r="L54" s="152"/>
-      <c r="M54" s="57"/>
-      <c r="N54" s="57"/>
-      <c r="O54" s="38"/>
-      <c r="P54" s="38"/>
-      <c r="Q54" s="94">
+      <c r="L54" s="198"/>
+      <c r="Q54" s="25">
         <v>28</v>
       </c>
-      <c r="R54" s="94">
+      <c r="R54" s="25">
         <v>28</v>
       </c>
-      <c r="S54" s="149">
+      <c r="S54" s="127">
         <v>15</v>
       </c>
     </row>
     <row r="55" spans="1:19" ht="51" x14ac:dyDescent="0.2">
-      <c r="A55" s="68">
+      <c r="A55" s="60">
         <v>16</v>
       </c>
-      <c r="B55" s="172"/>
-      <c r="C55" s="156"/>
-      <c r="D55" s="156"/>
+      <c r="B55" s="181"/>
+      <c r="C55" s="173"/>
+      <c r="D55" s="173"/>
       <c r="E55" s="3">
         <v>2</v>
       </c>
@@ -4783,37 +4673,33 @@
       <c r="G55" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="H55" s="83" t="s">
+      <c r="H55" s="74" t="s">
         <v>163</v>
       </c>
-      <c r="I55" s="86">
+      <c r="I55" s="76">
         <v>132</v>
       </c>
-      <c r="J55" s="85">
+      <c r="J55" s="1">
         <v>6</v>
       </c>
-      <c r="L55" s="152"/>
-      <c r="M55" s="57"/>
-      <c r="N55" s="57"/>
-      <c r="O55" s="38"/>
-      <c r="P55" s="38"/>
-      <c r="Q55" s="94">
+      <c r="L55" s="198"/>
+      <c r="Q55" s="25">
         <v>3</v>
       </c>
-      <c r="R55" s="94">
+      <c r="R55" s="25">
         <v>2</v>
       </c>
-      <c r="S55" s="149">
+      <c r="S55" s="127">
         <v>16</v>
       </c>
     </row>
     <row r="56" spans="1:19" ht="85" x14ac:dyDescent="0.2">
-      <c r="A56" s="68">
+      <c r="A56" s="60">
         <v>17</v>
       </c>
-      <c r="B56" s="172"/>
-      <c r="C56" s="156"/>
-      <c r="D56" s="156"/>
+      <c r="B56" s="181"/>
+      <c r="C56" s="173"/>
+      <c r="D56" s="173"/>
       <c r="E56" s="3">
         <v>58</v>
       </c>
@@ -4823,37 +4709,33 @@
       <c r="G56" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="H56" s="83" t="s">
+      <c r="H56" s="74" t="s">
         <v>165</v>
       </c>
-      <c r="I56" s="86">
+      <c r="I56" s="76">
         <v>28</v>
       </c>
-      <c r="J56" s="85">
+      <c r="J56" s="1">
         <v>7</v>
       </c>
-      <c r="L56" s="152"/>
-      <c r="M56" s="57"/>
-      <c r="N56" s="57"/>
-      <c r="O56" s="38"/>
-      <c r="P56" s="38"/>
-      <c r="Q56" s="94">
+      <c r="L56" s="198"/>
+      <c r="Q56" s="25">
         <v>58</v>
       </c>
-      <c r="R56" s="94">
+      <c r="R56" s="25">
         <v>51</v>
       </c>
-      <c r="S56" s="149">
+      <c r="S56" s="127">
         <v>17</v>
       </c>
     </row>
     <row r="57" spans="1:19" ht="85" x14ac:dyDescent="0.2">
-      <c r="A57" s="68">
+      <c r="A57" s="60">
         <v>18</v>
       </c>
-      <c r="B57" s="172"/>
-      <c r="C57" s="156"/>
-      <c r="D57" s="156"/>
+      <c r="B57" s="181"/>
+      <c r="C57" s="173"/>
+      <c r="D57" s="173"/>
       <c r="E57" s="3">
         <v>145</v>
       </c>
@@ -4863,37 +4745,33 @@
       <c r="G57" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="H57" s="83" t="s">
+      <c r="H57" s="74" t="s">
         <v>181</v>
       </c>
-      <c r="I57" s="86">
+      <c r="I57" s="76">
         <v>76</v>
       </c>
-      <c r="J57" s="85">
+      <c r="J57" s="1">
         <v>132</v>
       </c>
-      <c r="L57" s="152"/>
-      <c r="M57" s="57"/>
-      <c r="N57" s="57"/>
-      <c r="O57" s="38"/>
-      <c r="P57" s="38"/>
-      <c r="Q57" s="94">
+      <c r="L57" s="198"/>
+      <c r="Q57" s="25">
         <v>155</v>
       </c>
-      <c r="R57" s="94">
+      <c r="R57" s="25">
         <v>143</v>
       </c>
-      <c r="S57" s="149">
+      <c r="S57" s="127">
         <v>18</v>
       </c>
     </row>
     <row r="58" spans="1:19" ht="85" x14ac:dyDescent="0.2">
-      <c r="A58" s="68">
+      <c r="A58" s="60">
         <v>19</v>
       </c>
-      <c r="B58" s="172"/>
-      <c r="C58" s="156"/>
-      <c r="D58" s="156"/>
+      <c r="B58" s="181"/>
+      <c r="C58" s="173"/>
+      <c r="D58" s="173"/>
       <c r="E58" s="3">
         <v>4</v>
       </c>
@@ -4903,37 +4781,33 @@
       <c r="G58" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="H58" s="83" t="s">
+      <c r="H58" s="74" t="s">
         <v>185</v>
       </c>
-      <c r="I58" s="86">
+      <c r="I58" s="76">
         <v>19</v>
       </c>
-      <c r="J58" s="85">
+      <c r="J58" s="1">
         <v>8</v>
       </c>
-      <c r="L58" s="152"/>
-      <c r="M58" s="57"/>
-      <c r="N58" s="57"/>
-      <c r="O58" s="38"/>
-      <c r="P58" s="38"/>
-      <c r="Q58" s="94">
+      <c r="L58" s="198"/>
+      <c r="Q58" s="25">
         <v>124</v>
       </c>
-      <c r="R58" s="94">
+      <c r="R58" s="25">
         <v>4</v>
       </c>
-      <c r="S58" s="149">
+      <c r="S58" s="127">
         <v>19</v>
       </c>
     </row>
     <row r="59" spans="1:19" ht="51" x14ac:dyDescent="0.2">
-      <c r="A59" s="68">
+      <c r="A59" s="60">
         <v>20</v>
       </c>
-      <c r="B59" s="172"/>
-      <c r="C59" s="156"/>
-      <c r="D59" s="156"/>
+      <c r="B59" s="181"/>
+      <c r="C59" s="173"/>
+      <c r="D59" s="173"/>
       <c r="E59" s="3">
         <v>1</v>
       </c>
@@ -4943,37 +4817,33 @@
       <c r="G59" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="H59" s="83" t="s">
+      <c r="H59" s="74" t="s">
         <v>188</v>
       </c>
-      <c r="I59" s="86">
+      <c r="I59" s="76">
         <v>25</v>
       </c>
-      <c r="J59" s="85">
-        <v>1</v>
-      </c>
-      <c r="L59" s="152"/>
-      <c r="M59" s="57"/>
-      <c r="N59" s="57"/>
-      <c r="O59" s="38"/>
-      <c r="P59" s="38"/>
-      <c r="Q59" s="94">
-        <v>1</v>
-      </c>
-      <c r="R59" s="94">
-        <v>1</v>
-      </c>
-      <c r="S59" s="149">
+      <c r="J59" s="1">
+        <v>1</v>
+      </c>
+      <c r="L59" s="198"/>
+      <c r="Q59" s="25">
+        <v>1</v>
+      </c>
+      <c r="R59" s="25">
+        <v>1</v>
+      </c>
+      <c r="S59" s="127">
         <v>20</v>
       </c>
     </row>
     <row r="60" spans="1:19" ht="68" x14ac:dyDescent="0.2">
-      <c r="A60" s="68">
+      <c r="A60" s="60">
         <v>21</v>
       </c>
-      <c r="B60" s="172"/>
-      <c r="C60" s="156"/>
-      <c r="D60" s="156"/>
+      <c r="B60" s="181"/>
+      <c r="C60" s="173"/>
+      <c r="D60" s="173"/>
       <c r="E60" s="3">
         <v>327</v>
       </c>
@@ -4983,1371 +4853,434 @@
       <c r="G60" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="H60" s="83" t="s">
+      <c r="H60" s="74" t="s">
         <v>191</v>
       </c>
-      <c r="I60" s="86">
+      <c r="I60" s="76">
         <v>478</v>
       </c>
-      <c r="J60" s="85">
+      <c r="J60" s="1">
         <v>410</v>
       </c>
-      <c r="L60" s="152"/>
-      <c r="M60" s="57"/>
-      <c r="N60" s="57"/>
-      <c r="O60" s="38"/>
-      <c r="P60" s="38"/>
-      <c r="Q60" s="94">
+      <c r="L60" s="198"/>
+      <c r="Q60" s="25">
         <v>118</v>
       </c>
-      <c r="R60" s="94">
+      <c r="R60" s="25">
         <v>339</v>
       </c>
-      <c r="S60" s="149">
+      <c r="S60" s="127">
         <v>21</v>
       </c>
     </row>
     <row r="61" spans="1:19" ht="86" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="69">
+      <c r="A61" s="61">
         <v>22</v>
       </c>
-      <c r="B61" s="173"/>
-      <c r="C61" s="165"/>
-      <c r="D61" s="165"/>
-      <c r="E61" s="19">
+      <c r="B61" s="182"/>
+      <c r="C61" s="174"/>
+      <c r="D61" s="174"/>
+      <c r="E61" s="17">
         <v>2</v>
       </c>
-      <c r="F61" s="19" t="s">
+      <c r="F61" s="17" t="s">
         <v>195</v>
       </c>
-      <c r="G61" s="19" t="s">
+      <c r="G61" s="17" t="s">
         <v>193</v>
       </c>
-      <c r="H61" s="45" t="s">
+      <c r="H61" s="40" t="s">
         <v>194</v>
       </c>
-      <c r="I61" s="87">
+      <c r="I61" s="77">
         <v>15</v>
       </c>
-      <c r="J61" s="81">
+      <c r="J61" s="72">
         <v>2</v>
       </c>
-      <c r="L61" s="152"/>
-      <c r="M61" s="57"/>
-      <c r="N61" s="57"/>
-      <c r="O61" s="38"/>
-      <c r="P61" s="38"/>
-      <c r="Q61" s="94">
+      <c r="L61" s="198"/>
+      <c r="Q61" s="25">
         <v>109</v>
       </c>
-      <c r="R61" s="94">
+      <c r="R61" s="25">
         <v>2</v>
       </c>
-      <c r="S61" s="149">
+      <c r="S61" s="127">
         <v>22</v>
       </c>
     </row>
     <row r="62" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="195"/>
-      <c r="B62" s="196"/>
-      <c r="C62" s="196"/>
-      <c r="D62" s="197"/>
-      <c r="E62" s="197"/>
-      <c r="F62" s="197"/>
-      <c r="G62" s="197"/>
-      <c r="H62" s="198"/>
-      <c r="I62" s="88"/>
-      <c r="J62" s="84"/>
-      <c r="K62" s="63"/>
-      <c r="L62" s="140"/>
-      <c r="M62" s="141"/>
-      <c r="N62" s="141"/>
-      <c r="O62" s="141"/>
-      <c r="P62" s="141"/>
-      <c r="Q62" s="142"/>
-      <c r="R62" s="142"/>
-      <c r="S62" s="142"/>
+      <c r="A62" s="137"/>
+      <c r="B62" s="138"/>
+      <c r="C62" s="138"/>
+      <c r="D62" s="139"/>
+      <c r="E62" s="139"/>
+      <c r="F62" s="139"/>
+      <c r="G62" s="139"/>
+      <c r="H62" s="140"/>
+      <c r="I62" s="78"/>
+      <c r="J62" s="75"/>
+      <c r="K62" s="56"/>
+      <c r="L62" s="122"/>
+      <c r="M62" s="123"/>
+      <c r="N62" s="123"/>
+      <c r="O62" s="123"/>
+      <c r="P62" s="123"/>
+      <c r="Q62" s="123"/>
+      <c r="R62" s="123"/>
+      <c r="S62" s="123"/>
     </row>
     <row r="63" spans="1:19" ht="77" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="188" t="s">
+      <c r="A63" s="199" t="s">
         <v>218</v>
       </c>
-      <c r="B63" s="150"/>
-      <c r="C63" s="189"/>
-      <c r="D63" s="71"/>
-      <c r="E63" s="71"/>
-      <c r="F63" s="71"/>
-      <c r="G63" s="71"/>
-      <c r="H63" s="71"/>
-      <c r="I63" s="57"/>
-      <c r="J63" s="57"/>
-      <c r="K63" s="57"/>
-      <c r="M63" s="57"/>
-      <c r="N63" s="57"/>
-      <c r="O63" s="38"/>
-      <c r="P63" s="38"/>
+      <c r="B63" s="200"/>
+      <c r="C63" s="201"/>
+      <c r="D63" s="13"/>
+      <c r="E63" s="13"/>
+      <c r="F63" s="13"/>
+      <c r="G63" s="13"/>
+      <c r="H63" s="13"/>
+      <c r="K63"/>
     </row>
     <row r="64" spans="1:19" ht="17" x14ac:dyDescent="0.2">
-      <c r="A64" s="117" t="s">
+      <c r="A64" s="101" t="s">
         <v>201</v>
       </c>
-      <c r="B64" s="91">
+      <c r="B64" s="81">
         <v>16362</v>
       </c>
-      <c r="C64" s="199"/>
-      <c r="E64" s="67"/>
-      <c r="F64" s="67"/>
-      <c r="G64" s="67"/>
-      <c r="H64" s="67"/>
-      <c r="I64" s="57"/>
-      <c r="J64" s="57"/>
-      <c r="K64" s="57"/>
-      <c r="M64" s="57"/>
-      <c r="N64" s="57"/>
-      <c r="O64" s="38"/>
-      <c r="P64" s="38"/>
-    </row>
-    <row r="65" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="200" t="s">
+      <c r="C64" s="141"/>
+      <c r="E64" s="13"/>
+      <c r="F64" s="13"/>
+      <c r="G64" s="13"/>
+      <c r="H64" s="13"/>
+      <c r="K64"/>
+    </row>
+    <row r="65" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="142" t="s">
         <v>31</v>
       </c>
-      <c r="B65" s="201">
+      <c r="B65" s="143">
         <v>55607</v>
       </c>
-      <c r="C65" s="202"/>
-      <c r="D65" s="67"/>
-      <c r="E65" s="67"/>
-      <c r="F65" s="203"/>
-      <c r="G65" s="10"/>
-      <c r="H65" s="10"/>
-      <c r="I65" s="57"/>
-      <c r="J65" s="57"/>
-      <c r="K65" s="57"/>
-      <c r="M65" s="57"/>
-      <c r="N65" s="57"/>
-      <c r="O65" s="38"/>
-      <c r="P65" s="38"/>
-    </row>
-    <row r="66" spans="1:16" ht="35" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="124" t="s">
+      <c r="C65" s="144"/>
+      <c r="D65" s="13"/>
+      <c r="E65" s="13"/>
+      <c r="F65" s="145"/>
+      <c r="G65" s="9"/>
+      <c r="H65" s="9"/>
+      <c r="K65"/>
+    </row>
+    <row r="66" spans="1:11" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="108" t="s">
         <v>69</v>
       </c>
-      <c r="B66" s="125" t="s">
+      <c r="B66" s="109" t="s">
         <v>0</v>
       </c>
-      <c r="C66" s="204" t="s">
+      <c r="C66" s="146" t="s">
         <v>2</v>
       </c>
-      <c r="D66" s="210" t="s">
+      <c r="D66" s="53" t="s">
         <v>130</v>
       </c>
-      <c r="E66" s="205" t="s">
+      <c r="E66" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="F66" s="49" t="s">
+      <c r="F66" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="G66" s="207" t="s">
+      <c r="G66" s="148" t="s">
         <v>22</v>
       </c>
-      <c r="H66" s="49" t="s">
+      <c r="H66" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="I66" s="57"/>
-      <c r="J66" s="57"/>
-      <c r="K66" s="57"/>
-      <c r="M66" s="57"/>
-      <c r="N66" s="57"/>
-      <c r="O66" s="38"/>
-      <c r="P66" s="38"/>
-    </row>
-    <row r="67" spans="1:16" ht="68" x14ac:dyDescent="0.2">
-      <c r="A67" s="103">
-        <v>1</v>
-      </c>
-      <c r="B67" s="135"/>
-      <c r="C67" s="104"/>
-      <c r="D67" s="211" t="s">
+      <c r="K66"/>
+    </row>
+    <row r="67" spans="1:11" ht="68" x14ac:dyDescent="0.2">
+      <c r="A67" s="89">
+        <v>1</v>
+      </c>
+      <c r="B67" s="117"/>
+      <c r="C67" s="90"/>
+      <c r="D67" s="15" t="s">
         <v>211</v>
       </c>
-      <c r="E67" s="94">
+      <c r="E67" s="25">
         <v>72</v>
       </c>
-      <c r="F67" s="85"/>
-      <c r="G67" s="208" t="s">
+      <c r="F67" s="1"/>
+      <c r="G67" s="149" t="s">
         <v>208</v>
       </c>
-      <c r="H67" s="206" t="s">
+      <c r="H67" s="147" t="s">
         <v>209</v>
       </c>
-      <c r="I67" s="57"/>
-      <c r="J67" s="57"/>
-      <c r="K67" s="57"/>
-      <c r="M67" s="57"/>
-      <c r="N67" s="57"/>
-      <c r="O67" s="38"/>
-      <c r="P67" s="38"/>
-    </row>
-    <row r="68" spans="1:16" ht="68" x14ac:dyDescent="0.2">
-      <c r="A68" s="86">
+      <c r="K67"/>
+    </row>
+    <row r="68" spans="1:11" ht="68" x14ac:dyDescent="0.2">
+      <c r="A68" s="76">
         <v>2</v>
       </c>
-      <c r="B68" s="94"/>
-      <c r="C68" s="85"/>
-      <c r="D68" s="86"/>
-      <c r="E68" s="94">
+      <c r="B68" s="25"/>
+      <c r="C68" s="1"/>
+      <c r="D68" s="76"/>
+      <c r="E68" s="25">
         <v>6</v>
       </c>
-      <c r="F68" s="85"/>
-      <c r="G68" s="208" t="s">
+      <c r="F68" s="1"/>
+      <c r="G68" s="149" t="s">
         <v>219</v>
       </c>
-      <c r="H68" s="206" t="s">
+      <c r="H68" s="147" t="s">
         <v>210</v>
       </c>
-      <c r="I68" s="57"/>
-      <c r="J68" s="57"/>
-      <c r="K68" s="57"/>
-      <c r="M68" s="57"/>
-      <c r="N68" s="57"/>
-      <c r="O68" s="38"/>
-      <c r="P68" s="38"/>
-    </row>
-    <row r="69" spans="1:16" ht="153" x14ac:dyDescent="0.2">
-      <c r="A69" s="86">
+      <c r="K68"/>
+    </row>
+    <row r="69" spans="1:11" ht="153" x14ac:dyDescent="0.2">
+      <c r="A69" s="76">
         <v>3</v>
       </c>
-      <c r="B69" s="94"/>
-      <c r="C69" s="85"/>
-      <c r="D69" s="86"/>
-      <c r="E69" s="94">
+      <c r="B69" s="25"/>
+      <c r="C69" s="1"/>
+      <c r="D69" s="76"/>
+      <c r="E69" s="25">
         <v>29</v>
       </c>
-      <c r="F69" s="85"/>
-      <c r="G69" s="208" t="s">
+      <c r="F69" s="1"/>
+      <c r="G69" s="149" t="s">
         <v>212</v>
       </c>
-      <c r="H69" s="206" t="s">
+      <c r="H69" s="147" t="s">
         <v>213</v>
       </c>
-      <c r="I69" s="57"/>
-      <c r="J69" s="57"/>
-      <c r="K69" s="57"/>
-      <c r="M69" s="57"/>
-      <c r="N69" s="57"/>
-      <c r="O69" s="38"/>
-      <c r="P69" s="38"/>
-    </row>
-    <row r="70" spans="1:16" ht="103" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="87">
+      <c r="K69"/>
+    </row>
+    <row r="70" spans="1:11" ht="103" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="77">
         <v>4</v>
       </c>
-      <c r="B70" s="116"/>
-      <c r="C70" s="81"/>
-      <c r="D70" s="87"/>
-      <c r="E70" s="116">
+      <c r="B70" s="47"/>
+      <c r="C70" s="72"/>
+      <c r="D70" s="77"/>
+      <c r="E70" s="47">
         <v>65</v>
       </c>
-      <c r="F70" s="81"/>
-      <c r="G70" s="209" t="s">
+      <c r="F70" s="72"/>
+      <c r="G70" s="150" t="s">
         <v>220</v>
       </c>
-      <c r="H70" s="81"/>
-      <c r="I70" s="57"/>
-      <c r="J70" s="57"/>
-      <c r="K70" s="57"/>
-      <c r="M70" s="57"/>
-      <c r="N70" s="57"/>
-      <c r="O70" s="38"/>
-      <c r="P70" s="38"/>
-    </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A71" s="57"/>
-      <c r="B71" s="57"/>
-      <c r="C71" s="57"/>
-      <c r="D71" s="57"/>
-      <c r="E71" s="57"/>
-      <c r="F71" s="57"/>
-      <c r="G71" s="57"/>
-      <c r="H71" s="57"/>
-      <c r="I71" s="57"/>
-      <c r="J71" s="57"/>
-      <c r="K71" s="57"/>
-      <c r="M71" s="57"/>
-      <c r="N71" s="57"/>
-      <c r="O71" s="38"/>
-      <c r="P71" s="38"/>
-    </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A72" s="57"/>
-      <c r="B72" s="57"/>
-      <c r="C72" s="57"/>
-      <c r="D72" s="57"/>
-      <c r="E72" s="57"/>
-      <c r="F72" s="57"/>
-      <c r="G72" s="57"/>
-      <c r="H72" s="57"/>
-      <c r="I72" s="57"/>
-      <c r="J72" s="57"/>
-      <c r="K72" s="57"/>
-      <c r="M72" s="57"/>
-      <c r="N72" s="57"/>
-      <c r="O72" s="38"/>
-      <c r="P72" s="38"/>
-    </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A73" s="57"/>
-      <c r="B73" s="57"/>
-      <c r="C73" s="57"/>
-      <c r="D73" s="57"/>
-      <c r="E73" s="57"/>
-      <c r="F73" s="57"/>
-      <c r="G73" s="57"/>
-      <c r="H73" s="57"/>
-      <c r="I73" s="57"/>
-      <c r="J73" s="57"/>
-      <c r="K73" s="57"/>
-      <c r="M73" s="57"/>
-      <c r="N73" s="57"/>
-      <c r="O73" s="38"/>
-      <c r="P73" s="38"/>
-    </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A74" s="57"/>
-      <c r="B74" s="57"/>
-      <c r="C74" s="57"/>
-      <c r="D74" s="57"/>
-      <c r="E74" s="57"/>
-      <c r="F74" s="57"/>
-      <c r="G74" s="57"/>
-      <c r="H74" s="57"/>
-      <c r="I74" s="57"/>
-      <c r="J74" s="57"/>
-      <c r="K74" s="57"/>
-      <c r="M74" s="57"/>
-      <c r="N74" s="57"/>
-      <c r="O74" s="38"/>
-      <c r="P74" s="38"/>
-    </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A75" s="57"/>
-      <c r="B75" s="57"/>
-      <c r="C75" s="57"/>
-      <c r="D75" s="57"/>
-      <c r="E75" s="57"/>
-      <c r="F75" s="57"/>
-      <c r="G75" s="57"/>
-      <c r="H75" s="57"/>
-      <c r="I75" s="57"/>
-      <c r="J75" s="57"/>
-      <c r="K75" s="57"/>
-      <c r="M75" s="57"/>
-      <c r="N75" s="57"/>
-      <c r="O75" s="38"/>
-      <c r="P75" s="38"/>
-    </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A76" s="57"/>
-      <c r="B76" s="57"/>
-      <c r="C76" s="57"/>
-      <c r="D76" s="57"/>
-      <c r="E76" s="57"/>
-      <c r="F76" s="57"/>
-      <c r="G76" s="57"/>
-      <c r="H76" s="57"/>
-      <c r="I76" s="57"/>
-      <c r="J76" s="57"/>
-      <c r="K76" s="57"/>
-      <c r="M76" s="57"/>
-      <c r="N76" s="57"/>
-      <c r="O76" s="38"/>
-      <c r="P76" s="38"/>
-    </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A77" s="57"/>
-      <c r="B77" s="57"/>
-      <c r="C77" s="57"/>
-      <c r="D77" s="57"/>
-      <c r="E77" s="57"/>
-      <c r="F77" s="57"/>
-      <c r="G77" s="57"/>
-      <c r="H77" s="57"/>
-      <c r="I77" s="57"/>
-      <c r="J77" s="57"/>
-      <c r="K77" s="57"/>
-      <c r="M77" s="57"/>
-      <c r="N77" s="57"/>
-      <c r="O77" s="38"/>
-      <c r="P77" s="38"/>
-    </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A78" s="57"/>
-      <c r="B78" s="57"/>
-      <c r="C78" s="57"/>
-      <c r="D78" s="57"/>
-      <c r="E78" s="57"/>
-      <c r="F78" s="57"/>
-      <c r="G78" s="57"/>
-      <c r="H78" s="57"/>
-      <c r="I78" s="57"/>
-      <c r="J78" s="57"/>
-      <c r="K78" s="57"/>
-      <c r="M78" s="57"/>
-      <c r="N78" s="57"/>
-      <c r="O78" s="38"/>
-      <c r="P78" s="38"/>
-    </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A79" s="57"/>
-      <c r="B79" s="57"/>
-      <c r="C79" s="57"/>
-      <c r="D79" s="57"/>
-      <c r="E79" s="57"/>
-      <c r="F79" s="57"/>
-      <c r="G79" s="57"/>
-      <c r="H79" s="57"/>
-      <c r="I79" s="57"/>
-      <c r="J79" s="57"/>
-      <c r="K79" s="57"/>
-      <c r="M79" s="57"/>
-      <c r="N79" s="57"/>
-      <c r="O79" s="38"/>
-      <c r="P79" s="38"/>
-    </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A80" s="57"/>
-      <c r="B80" s="57"/>
-      <c r="C80" s="57"/>
-      <c r="D80" s="57"/>
-      <c r="E80" s="57"/>
-      <c r="F80" s="57"/>
-      <c r="G80" s="57"/>
-      <c r="H80" s="57"/>
-      <c r="I80" s="57"/>
-      <c r="J80" s="57"/>
-      <c r="K80" s="57"/>
-      <c r="M80" s="57"/>
-      <c r="N80" s="57"/>
-      <c r="O80" s="38"/>
-      <c r="P80" s="38"/>
-    </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A81" s="57"/>
-      <c r="B81" s="57"/>
-      <c r="C81" s="57"/>
-      <c r="D81" s="57"/>
-      <c r="E81" s="57"/>
-      <c r="F81" s="57"/>
-      <c r="G81" s="57"/>
-      <c r="H81" s="57"/>
-      <c r="I81" s="57"/>
-      <c r="J81" s="57"/>
-      <c r="K81" s="57"/>
-      <c r="M81" s="57"/>
-      <c r="N81" s="57"/>
-      <c r="O81" s="38"/>
-      <c r="P81" s="38"/>
-    </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A82" s="57"/>
-      <c r="B82" s="57"/>
-      <c r="C82" s="57"/>
-      <c r="D82" s="57"/>
-      <c r="E82" s="57"/>
-      <c r="F82" s="57"/>
-      <c r="G82" s="57"/>
-      <c r="H82" s="57"/>
-      <c r="I82" s="57"/>
-      <c r="J82" s="57"/>
-      <c r="K82" s="57"/>
-      <c r="M82" s="57"/>
-      <c r="N82" s="57"/>
-      <c r="O82" s="38"/>
-      <c r="P82" s="38"/>
-    </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A83" s="57"/>
-      <c r="B83" s="57"/>
-      <c r="C83" s="57"/>
-      <c r="D83" s="57"/>
-      <c r="E83" s="57"/>
-      <c r="F83" s="57"/>
-      <c r="G83" s="57"/>
-      <c r="H83" s="57"/>
-      <c r="I83" s="57"/>
-      <c r="J83" s="57"/>
-      <c r="K83" s="57"/>
-      <c r="M83" s="57"/>
-      <c r="N83" s="57"/>
-      <c r="O83" s="38"/>
-      <c r="P83" s="38"/>
-    </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A84" s="57"/>
-      <c r="B84" s="57"/>
-      <c r="C84" s="57"/>
-      <c r="D84" s="57"/>
-      <c r="E84" s="57"/>
-      <c r="F84" s="57"/>
-      <c r="G84" s="57"/>
-      <c r="H84" s="57"/>
-      <c r="I84" s="57"/>
-      <c r="J84" s="57"/>
-      <c r="K84" s="57"/>
-      <c r="M84" s="57"/>
-      <c r="N84" s="57"/>
-      <c r="O84" s="38"/>
-      <c r="P84" s="38"/>
-    </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A85" s="57"/>
-      <c r="B85" s="57"/>
-      <c r="C85" s="57"/>
-      <c r="D85" s="57"/>
-      <c r="E85" s="57"/>
-      <c r="F85" s="57"/>
-      <c r="G85" s="57"/>
-      <c r="H85" s="57"/>
-      <c r="I85" s="57"/>
-      <c r="J85" s="57"/>
-      <c r="K85" s="57"/>
-      <c r="M85" s="57"/>
-      <c r="N85" s="57"/>
-      <c r="O85" s="38"/>
-      <c r="P85" s="38"/>
-    </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A86" s="57"/>
-      <c r="B86" s="57"/>
-      <c r="C86" s="57"/>
-      <c r="D86" s="57"/>
-      <c r="E86" s="57"/>
-      <c r="F86" s="57"/>
-      <c r="G86" s="57"/>
-      <c r="H86" s="57"/>
-      <c r="I86" s="57"/>
-      <c r="J86" s="57"/>
-      <c r="K86" s="57"/>
-      <c r="M86" s="57"/>
-      <c r="N86" s="57"/>
-      <c r="O86" s="38"/>
-      <c r="P86" s="38"/>
-    </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A87" s="57"/>
-      <c r="B87" s="57"/>
-      <c r="C87" s="57"/>
-      <c r="D87" s="57"/>
-      <c r="E87" s="57"/>
-      <c r="F87" s="57"/>
-      <c r="G87" s="57"/>
-      <c r="H87" s="57"/>
-      <c r="I87" s="57"/>
-      <c r="J87" s="57"/>
-      <c r="K87" s="57"/>
-      <c r="M87" s="57"/>
-      <c r="N87" s="57"/>
-      <c r="O87" s="38"/>
-      <c r="P87" s="38"/>
-    </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A88" s="57"/>
-      <c r="B88" s="57"/>
-      <c r="C88" s="57"/>
-      <c r="D88" s="57"/>
-      <c r="E88" s="57"/>
-      <c r="F88" s="57"/>
-      <c r="G88" s="57"/>
-      <c r="H88" s="57"/>
-      <c r="I88" s="57"/>
-      <c r="J88" s="57"/>
-      <c r="K88" s="57"/>
-      <c r="M88" s="57"/>
-      <c r="N88" s="57"/>
-      <c r="O88" s="38"/>
-      <c r="P88" s="38"/>
-    </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A89" s="57"/>
-      <c r="B89" s="57"/>
-      <c r="C89" s="57"/>
-      <c r="D89" s="57"/>
-      <c r="E89" s="57"/>
-      <c r="F89" s="57"/>
-      <c r="G89" s="57"/>
-      <c r="H89" s="57"/>
-      <c r="I89" s="57"/>
-      <c r="J89" s="57"/>
-      <c r="K89" s="57"/>
-      <c r="M89" s="57"/>
-      <c r="N89" s="57"/>
-      <c r="O89" s="38"/>
-      <c r="P89" s="38"/>
-    </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A90" s="57"/>
-      <c r="B90" s="57"/>
-      <c r="C90" s="57"/>
-      <c r="D90" s="57"/>
-      <c r="E90" s="57"/>
-      <c r="F90" s="57"/>
-      <c r="G90" s="57"/>
-      <c r="H90" s="57"/>
-      <c r="I90" s="57"/>
-      <c r="J90" s="57"/>
-      <c r="K90" s="57"/>
-      <c r="M90" s="57"/>
-      <c r="N90" s="57"/>
-      <c r="O90" s="38"/>
-      <c r="P90" s="38"/>
-    </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A91" s="57"/>
-      <c r="B91" s="57"/>
-      <c r="C91" s="57"/>
-      <c r="D91" s="57"/>
-      <c r="E91" s="57"/>
-      <c r="F91" s="57"/>
-      <c r="G91" s="57"/>
-      <c r="H91" s="57"/>
-      <c r="I91" s="57"/>
-      <c r="J91" s="57"/>
-      <c r="K91" s="57"/>
-      <c r="M91" s="57"/>
-      <c r="N91" s="57"/>
-      <c r="O91" s="38"/>
-      <c r="P91" s="38"/>
-    </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A92" s="57"/>
-      <c r="B92" s="57"/>
-      <c r="C92" s="57"/>
-      <c r="D92" s="57"/>
-      <c r="E92" s="57"/>
-      <c r="F92" s="57"/>
-      <c r="G92" s="57"/>
-      <c r="H92" s="57"/>
-      <c r="I92" s="57"/>
-      <c r="J92" s="57"/>
-      <c r="K92" s="57"/>
-      <c r="M92" s="57"/>
-      <c r="N92" s="57"/>
-      <c r="O92" s="38"/>
-      <c r="P92" s="38"/>
-    </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A93" s="57"/>
-      <c r="B93" s="57"/>
-      <c r="C93" s="57"/>
-      <c r="D93" s="57"/>
-      <c r="E93" s="57"/>
-      <c r="F93" s="57"/>
-      <c r="G93" s="57"/>
-      <c r="H93" s="57"/>
-      <c r="I93" s="57"/>
-      <c r="J93" s="57"/>
-      <c r="K93" s="57"/>
-      <c r="M93" s="57"/>
-      <c r="N93" s="57"/>
-      <c r="O93" s="38"/>
-      <c r="P93" s="38"/>
-    </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A94" s="57"/>
-      <c r="B94" s="57"/>
-      <c r="C94" s="57"/>
-      <c r="D94" s="57"/>
-      <c r="E94" s="57"/>
-      <c r="F94" s="57"/>
-      <c r="G94" s="57"/>
-      <c r="H94" s="57"/>
-      <c r="I94" s="57"/>
-      <c r="J94" s="57"/>
-      <c r="K94" s="57"/>
-      <c r="M94" s="57"/>
-      <c r="N94" s="57"/>
-      <c r="O94" s="38"/>
-      <c r="P94" s="38"/>
-    </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A95" s="57"/>
-      <c r="B95" s="57"/>
-      <c r="C95" s="57"/>
-      <c r="D95" s="57"/>
-      <c r="E95" s="57"/>
-      <c r="F95" s="57"/>
-      <c r="G95" s="57"/>
-      <c r="H95" s="57"/>
-      <c r="I95" s="57"/>
-      <c r="J95" s="57"/>
-      <c r="K95" s="57"/>
-      <c r="M95" s="57"/>
-      <c r="N95" s="57"/>
-      <c r="O95" s="38"/>
-      <c r="P95" s="38"/>
-    </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A96" s="57"/>
-      <c r="B96" s="57"/>
-      <c r="C96" s="57"/>
-      <c r="D96" s="57"/>
-      <c r="E96" s="57"/>
-      <c r="F96" s="57"/>
-      <c r="G96" s="57"/>
-      <c r="H96" s="57"/>
-      <c r="I96" s="57"/>
-      <c r="J96" s="57"/>
-      <c r="K96" s="57"/>
-      <c r="M96" s="57"/>
-      <c r="N96" s="57"/>
-      <c r="O96" s="38"/>
-      <c r="P96" s="38"/>
-    </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A97" s="57"/>
-      <c r="B97" s="57"/>
-      <c r="C97" s="57"/>
-      <c r="D97" s="57"/>
-      <c r="E97" s="57"/>
-      <c r="F97" s="57"/>
-      <c r="G97" s="57"/>
-      <c r="H97" s="57"/>
-      <c r="I97" s="57"/>
-      <c r="J97" s="57"/>
-      <c r="K97" s="57"/>
-      <c r="M97" s="57"/>
-      <c r="N97" s="57"/>
-      <c r="O97" s="38"/>
-      <c r="P97" s="38"/>
-    </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A98" s="57"/>
-      <c r="B98" s="57"/>
-      <c r="C98" s="57"/>
-      <c r="D98" s="57"/>
-      <c r="E98" s="57"/>
-      <c r="F98" s="57"/>
-      <c r="G98" s="57"/>
-      <c r="H98" s="57"/>
-      <c r="I98" s="57"/>
-      <c r="J98" s="57"/>
-      <c r="K98" s="57"/>
-      <c r="M98" s="57"/>
-      <c r="N98" s="57"/>
-      <c r="O98" s="38"/>
-      <c r="P98" s="38"/>
-    </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A99" s="57"/>
-      <c r="B99" s="57"/>
-      <c r="C99" s="57"/>
-      <c r="D99" s="57"/>
-      <c r="E99" s="57"/>
-      <c r="F99" s="57"/>
-      <c r="G99" s="57"/>
-      <c r="H99" s="57"/>
-      <c r="I99" s="57"/>
-      <c r="J99" s="57"/>
-      <c r="K99" s="57"/>
-      <c r="M99" s="57"/>
-      <c r="N99" s="54"/>
-    </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A100" s="57"/>
-      <c r="B100" s="57"/>
-      <c r="C100" s="57"/>
-      <c r="D100" s="57"/>
-      <c r="E100" s="57"/>
-      <c r="F100" s="57"/>
-      <c r="G100" s="57"/>
-      <c r="H100" s="57"/>
-      <c r="I100" s="57"/>
-      <c r="J100" s="57"/>
-      <c r="K100" s="57"/>
-      <c r="M100" s="57"/>
-      <c r="N100" s="54"/>
-    </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A101" s="57"/>
-      <c r="B101" s="57"/>
-      <c r="C101" s="57"/>
-      <c r="D101" s="57"/>
-      <c r="E101" s="57"/>
-      <c r="F101" s="57"/>
-      <c r="G101" s="57"/>
-      <c r="H101" s="57"/>
-      <c r="I101" s="57"/>
-      <c r="J101" s="57"/>
-      <c r="K101" s="57"/>
-      <c r="M101" s="57"/>
-      <c r="N101" s="54"/>
-    </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A102" s="57"/>
-      <c r="B102" s="57"/>
-      <c r="C102" s="57"/>
-      <c r="D102" s="57"/>
-      <c r="E102" s="57"/>
-      <c r="F102" s="57"/>
-      <c r="G102" s="57"/>
-      <c r="H102" s="57"/>
-      <c r="I102" s="57"/>
-      <c r="J102" s="57"/>
-      <c r="K102" s="57"/>
-      <c r="M102" s="57"/>
-      <c r="N102" s="54"/>
-    </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A103" s="57"/>
-      <c r="B103" s="57"/>
-      <c r="C103" s="57"/>
-      <c r="D103" s="57"/>
-      <c r="E103" s="57"/>
-      <c r="F103" s="57"/>
-      <c r="G103" s="57"/>
-      <c r="H103" s="57"/>
-      <c r="I103" s="57"/>
-      <c r="J103" s="57"/>
-      <c r="K103" s="57"/>
-      <c r="M103" s="57"/>
-      <c r="N103" s="54"/>
-    </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A104" s="57"/>
-      <c r="B104" s="57"/>
-      <c r="C104" s="57"/>
-      <c r="D104" s="57"/>
-      <c r="E104" s="57"/>
-      <c r="F104" s="57"/>
-      <c r="G104" s="57"/>
-      <c r="H104" s="57"/>
-      <c r="I104" s="57"/>
-      <c r="J104" s="57"/>
-      <c r="K104" s="57"/>
-      <c r="M104" s="57"/>
-      <c r="N104" s="54"/>
-    </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A105" s="57"/>
-      <c r="B105" s="57"/>
-      <c r="C105" s="57"/>
-      <c r="D105" s="57"/>
-      <c r="E105" s="57"/>
-      <c r="F105" s="57"/>
-      <c r="G105" s="57"/>
-      <c r="H105" s="57"/>
-      <c r="I105" s="57"/>
-      <c r="J105" s="57"/>
-      <c r="K105" s="57"/>
-      <c r="M105" s="57"/>
-      <c r="N105" s="54"/>
-    </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A106" s="57"/>
-      <c r="B106" s="57"/>
-      <c r="C106" s="57"/>
-      <c r="D106" s="57"/>
-      <c r="E106" s="57"/>
-      <c r="F106" s="57"/>
-      <c r="G106" s="57"/>
-      <c r="H106" s="57"/>
-      <c r="I106" s="57"/>
-      <c r="J106" s="57"/>
-      <c r="K106" s="57"/>
-      <c r="M106" s="57"/>
-      <c r="N106" s="54"/>
-    </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A107" s="57"/>
-      <c r="B107" s="57"/>
-      <c r="C107" s="57"/>
-      <c r="D107" s="57"/>
-      <c r="E107" s="57"/>
-      <c r="F107" s="57"/>
-      <c r="G107" s="57"/>
-      <c r="H107" s="57"/>
-      <c r="I107" s="57"/>
-      <c r="J107" s="57"/>
-      <c r="K107" s="57"/>
-      <c r="M107" s="57"/>
-      <c r="N107" s="54"/>
-    </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A108" s="57"/>
-      <c r="B108" s="57"/>
-      <c r="C108" s="57"/>
-      <c r="D108" s="57"/>
-      <c r="E108" s="57"/>
-      <c r="F108" s="57"/>
-      <c r="G108" s="57"/>
-      <c r="H108" s="57"/>
-      <c r="I108" s="57"/>
-      <c r="J108" s="57"/>
-      <c r="K108" s="57"/>
-      <c r="M108" s="57"/>
-      <c r="N108" s="54"/>
-    </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A109" s="57"/>
-      <c r="B109" s="57"/>
-      <c r="C109" s="57"/>
-      <c r="D109" s="57"/>
-      <c r="E109" s="57"/>
-      <c r="F109" s="57"/>
-      <c r="G109" s="57"/>
-      <c r="H109" s="57"/>
-      <c r="I109" s="57"/>
-      <c r="J109" s="57"/>
-      <c r="K109" s="57"/>
-      <c r="M109" s="57"/>
-      <c r="N109" s="54"/>
-    </row>
-    <row r="110" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A110" s="57"/>
-      <c r="B110" s="57"/>
-      <c r="C110" s="57"/>
-      <c r="D110" s="57"/>
-      <c r="E110" s="57"/>
-      <c r="F110" s="57"/>
-      <c r="G110" s="57"/>
-      <c r="H110" s="57"/>
-      <c r="I110" s="57"/>
-      <c r="J110" s="57"/>
-      <c r="K110" s="57"/>
-      <c r="M110" s="57"/>
-      <c r="N110" s="54"/>
-    </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A111" s="57"/>
-      <c r="B111" s="57"/>
-      <c r="C111" s="57"/>
-      <c r="D111" s="57"/>
-      <c r="E111" s="57"/>
-      <c r="F111" s="57"/>
-      <c r="G111" s="57"/>
-      <c r="H111" s="57"/>
-      <c r="I111" s="57"/>
-      <c r="J111" s="57"/>
-      <c r="K111" s="57"/>
-      <c r="M111" s="57"/>
-      <c r="N111" s="54"/>
-    </row>
-    <row r="112" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A112" s="57"/>
-      <c r="B112" s="57"/>
-      <c r="C112" s="57"/>
-      <c r="D112" s="57"/>
-      <c r="E112" s="57"/>
-      <c r="F112" s="57"/>
-      <c r="G112" s="57"/>
-      <c r="H112" s="57"/>
-      <c r="I112" s="57"/>
-      <c r="J112" s="57"/>
-      <c r="K112" s="57"/>
-      <c r="M112" s="57"/>
-      <c r="N112" s="54"/>
-    </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A113" s="57"/>
-      <c r="B113" s="57"/>
-      <c r="C113" s="57"/>
-      <c r="D113" s="57"/>
-      <c r="E113" s="57"/>
-      <c r="F113" s="57"/>
-      <c r="G113" s="57"/>
-      <c r="H113" s="57"/>
-      <c r="I113" s="57"/>
-      <c r="J113" s="57"/>
-      <c r="K113" s="57"/>
-      <c r="M113" s="57"/>
-      <c r="N113" s="54"/>
-    </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A114" s="57"/>
-      <c r="B114" s="57"/>
-      <c r="C114" s="57"/>
-      <c r="D114" s="57"/>
-      <c r="E114" s="57"/>
-      <c r="F114" s="57"/>
-      <c r="G114" s="57"/>
-      <c r="H114" s="57"/>
-      <c r="I114" s="57"/>
-      <c r="J114" s="57"/>
-      <c r="K114" s="57"/>
-      <c r="M114" s="57"/>
-      <c r="N114" s="54"/>
-    </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A115" s="57"/>
-      <c r="B115" s="57"/>
-      <c r="C115" s="57"/>
-      <c r="D115" s="57"/>
-      <c r="E115" s="57"/>
-      <c r="F115" s="57"/>
-      <c r="G115" s="57"/>
-      <c r="H115" s="57"/>
-      <c r="I115" s="57"/>
-      <c r="J115" s="57"/>
-      <c r="K115" s="57"/>
-      <c r="M115" s="57"/>
-      <c r="N115" s="54"/>
-    </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A116" s="57"/>
-      <c r="B116" s="57"/>
-      <c r="C116" s="57"/>
-      <c r="D116" s="57"/>
-      <c r="E116" s="57"/>
-      <c r="F116" s="57"/>
-      <c r="G116" s="57"/>
-      <c r="H116" s="57"/>
-      <c r="I116" s="57"/>
-      <c r="J116" s="57"/>
-      <c r="K116" s="57"/>
-      <c r="M116" s="57"/>
-      <c r="N116" s="54"/>
-    </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A117" s="57"/>
-      <c r="B117" s="57"/>
-      <c r="C117" s="57"/>
-      <c r="D117" s="57"/>
-      <c r="E117" s="57"/>
-      <c r="F117" s="57"/>
-      <c r="G117" s="57"/>
-      <c r="H117" s="57"/>
-      <c r="I117" s="57"/>
-      <c r="J117" s="57"/>
-      <c r="K117" s="57"/>
-      <c r="M117" s="57"/>
-      <c r="N117" s="54"/>
-    </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A118" s="57"/>
-      <c r="B118" s="57"/>
-      <c r="C118" s="57"/>
-      <c r="D118" s="57"/>
-      <c r="E118" s="57"/>
-      <c r="F118" s="57"/>
-      <c r="G118" s="57"/>
-      <c r="H118" s="57"/>
-      <c r="I118" s="57"/>
-      <c r="J118" s="57"/>
-      <c r="K118" s="57"/>
-      <c r="M118" s="57"/>
-      <c r="N118" s="54"/>
-    </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A119" s="57"/>
-      <c r="B119" s="57"/>
-      <c r="C119" s="57"/>
-      <c r="D119" s="57"/>
-      <c r="E119" s="57"/>
-      <c r="F119" s="57"/>
-      <c r="G119" s="57"/>
-      <c r="H119" s="57"/>
-      <c r="I119" s="57"/>
-      <c r="J119" s="57"/>
-      <c r="K119" s="57"/>
-      <c r="M119" s="57"/>
-      <c r="N119" s="54"/>
-    </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A120" s="57"/>
-      <c r="B120" s="57"/>
-      <c r="C120" s="57"/>
-      <c r="D120" s="57"/>
-      <c r="E120" s="57"/>
-      <c r="F120" s="57"/>
-      <c r="G120" s="57"/>
-      <c r="H120" s="57"/>
-      <c r="I120" s="57"/>
-      <c r="J120" s="57"/>
-      <c r="K120" s="57"/>
-      <c r="M120" s="57"/>
-      <c r="N120" s="54"/>
-    </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A121" s="57"/>
-      <c r="B121" s="57"/>
-      <c r="C121" s="57"/>
-      <c r="D121" s="57"/>
-      <c r="E121" s="57"/>
-      <c r="F121" s="57"/>
-      <c r="G121" s="57"/>
-      <c r="H121" s="57"/>
-      <c r="I121" s="57"/>
-      <c r="J121" s="57"/>
-      <c r="K121" s="57"/>
-      <c r="M121" s="57"/>
-      <c r="N121" s="54"/>
-    </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A122" s="57"/>
-      <c r="B122" s="57"/>
-      <c r="C122" s="57"/>
-      <c r="D122" s="57"/>
-      <c r="E122" s="57"/>
-      <c r="F122" s="57"/>
-      <c r="G122" s="57"/>
-      <c r="H122" s="57"/>
-      <c r="I122" s="57"/>
-      <c r="J122" s="57"/>
-      <c r="K122" s="57"/>
-      <c r="M122" s="57"/>
-      <c r="N122" s="54"/>
-    </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A123" s="57"/>
-      <c r="B123" s="57"/>
-      <c r="C123" s="57"/>
-      <c r="D123" s="57"/>
-      <c r="E123" s="57"/>
-      <c r="F123" s="57"/>
-      <c r="G123" s="57"/>
-      <c r="H123" s="57"/>
-      <c r="I123" s="57"/>
-      <c r="J123" s="57"/>
-      <c r="K123" s="57"/>
-      <c r="M123" s="57"/>
-      <c r="N123" s="54"/>
-    </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A124" s="57"/>
-      <c r="B124" s="57"/>
-      <c r="C124" s="57"/>
-      <c r="D124" s="57"/>
-      <c r="E124" s="57"/>
-      <c r="F124" s="57"/>
-      <c r="G124" s="57"/>
-      <c r="H124" s="57"/>
-      <c r="I124" s="57"/>
-      <c r="J124" s="57"/>
-      <c r="K124" s="57"/>
-      <c r="M124" s="57"/>
-      <c r="N124" s="54"/>
-    </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A125" s="57"/>
-      <c r="B125" s="57"/>
-      <c r="C125" s="57"/>
-      <c r="D125" s="57"/>
-      <c r="E125" s="57"/>
-      <c r="F125" s="57"/>
-      <c r="G125" s="57"/>
-      <c r="H125" s="57"/>
-      <c r="I125" s="57"/>
-      <c r="J125" s="57"/>
-      <c r="K125" s="57"/>
-      <c r="M125" s="57"/>
-      <c r="N125" s="54"/>
-    </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A126" s="57"/>
-      <c r="B126" s="57"/>
-      <c r="C126" s="57"/>
-      <c r="D126" s="57"/>
-      <c r="E126" s="57"/>
-      <c r="F126" s="57"/>
-      <c r="G126" s="57"/>
-      <c r="H126" s="57"/>
-      <c r="I126" s="57"/>
-      <c r="J126" s="57"/>
-      <c r="K126" s="57"/>
-      <c r="M126" s="57"/>
-      <c r="N126" s="54"/>
-    </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A127" s="57"/>
-      <c r="B127" s="57"/>
-      <c r="C127" s="57"/>
-      <c r="D127" s="57"/>
-      <c r="E127" s="57"/>
-      <c r="F127" s="57"/>
-      <c r="G127" s="57"/>
-      <c r="H127" s="57"/>
-      <c r="I127" s="57"/>
-      <c r="J127" s="57"/>
-      <c r="K127" s="57"/>
-      <c r="M127" s="57"/>
-      <c r="N127" s="54"/>
-    </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A128" s="57"/>
-      <c r="B128" s="57"/>
-      <c r="C128" s="57"/>
-      <c r="D128" s="57"/>
-      <c r="E128" s="57"/>
-      <c r="F128" s="57"/>
-      <c r="G128" s="57"/>
-      <c r="H128" s="57"/>
-      <c r="I128" s="57"/>
-      <c r="J128" s="57"/>
-      <c r="K128" s="57"/>
-      <c r="M128" s="57"/>
-      <c r="N128" s="54"/>
-    </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A129" s="57"/>
-      <c r="B129" s="57"/>
-      <c r="C129" s="57"/>
-      <c r="D129" s="57"/>
-      <c r="E129" s="57"/>
-      <c r="F129" s="57"/>
-      <c r="G129" s="57"/>
-      <c r="H129" s="57"/>
-      <c r="I129" s="57"/>
-      <c r="J129" s="57"/>
-      <c r="K129" s="57"/>
-      <c r="M129" s="57"/>
-      <c r="N129" s="54"/>
-    </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A130" s="57"/>
-      <c r="B130" s="57"/>
-      <c r="C130" s="57"/>
-      <c r="D130" s="57"/>
-      <c r="E130" s="57"/>
-      <c r="F130" s="57"/>
-      <c r="G130" s="57"/>
-      <c r="H130" s="57"/>
-      <c r="I130" s="57"/>
-      <c r="J130" s="57"/>
-      <c r="K130" s="57"/>
-      <c r="M130" s="57"/>
-      <c r="N130" s="54"/>
-    </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A131" s="57"/>
-      <c r="B131" s="57"/>
-      <c r="C131" s="57"/>
-      <c r="D131" s="57"/>
-      <c r="E131" s="57"/>
-      <c r="F131" s="57"/>
-      <c r="G131" s="57"/>
-      <c r="H131" s="57"/>
-      <c r="I131" s="57"/>
-      <c r="J131" s="57"/>
-      <c r="K131" s="57"/>
-      <c r="M131" s="57"/>
-      <c r="N131" s="54"/>
-    </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A132" s="57"/>
-      <c r="B132" s="57"/>
-      <c r="C132" s="57"/>
-      <c r="D132" s="57"/>
-      <c r="E132" s="57"/>
-      <c r="F132" s="57"/>
-      <c r="G132" s="57"/>
-      <c r="H132" s="57"/>
-      <c r="I132" s="57"/>
-      <c r="J132" s="57"/>
-      <c r="K132" s="57"/>
-      <c r="M132" s="57"/>
-      <c r="N132" s="54"/>
-    </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A133" s="57"/>
-      <c r="B133" s="57"/>
-      <c r="C133" s="57"/>
-      <c r="D133" s="57"/>
-      <c r="E133" s="57"/>
-      <c r="F133" s="57"/>
-      <c r="G133" s="57"/>
-      <c r="H133" s="57"/>
-      <c r="I133" s="57"/>
-      <c r="J133" s="57"/>
-      <c r="K133" s="57"/>
-      <c r="M133" s="57"/>
-      <c r="N133" s="54"/>
-    </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A134" s="57"/>
-      <c r="B134" s="57"/>
-      <c r="C134" s="57"/>
-      <c r="D134" s="57"/>
-      <c r="E134" s="57"/>
-      <c r="F134" s="57"/>
-      <c r="G134" s="57"/>
-      <c r="H134" s="57"/>
-      <c r="I134" s="57"/>
-      <c r="J134" s="57"/>
-      <c r="K134" s="57"/>
-      <c r="M134" s="57"/>
-      <c r="N134" s="54"/>
-    </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A135" s="57"/>
-      <c r="B135" s="57"/>
-      <c r="C135" s="57"/>
-      <c r="D135" s="57"/>
-      <c r="E135" s="57"/>
-      <c r="F135" s="57"/>
-      <c r="G135" s="57"/>
-      <c r="H135" s="57"/>
-      <c r="I135" s="57"/>
-      <c r="J135" s="57"/>
-      <c r="K135" s="57"/>
-      <c r="M135" s="57"/>
-      <c r="N135" s="54"/>
-    </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="I136" s="54"/>
-      <c r="J136" s="54"/>
-      <c r="M136" s="54"/>
-      <c r="N136" s="54"/>
-    </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="I137" s="54"/>
-      <c r="J137" s="54"/>
-      <c r="M137" s="54"/>
-      <c r="N137" s="54"/>
-    </row>
-    <row r="138" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="I138" s="54"/>
-      <c r="J138" s="54"/>
-      <c r="M138" s="54"/>
-      <c r="N138" s="54"/>
-    </row>
-    <row r="139" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="I139" s="54"/>
-      <c r="J139" s="54"/>
-      <c r="M139" s="54"/>
-      <c r="N139" s="54"/>
-    </row>
-    <row r="140" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="I140" s="54"/>
-      <c r="J140" s="54"/>
-      <c r="M140" s="54"/>
-      <c r="N140" s="54"/>
-    </row>
-    <row r="141" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="I141" s="54"/>
-      <c r="J141" s="54"/>
-      <c r="M141" s="54"/>
-      <c r="N141" s="54"/>
-    </row>
-    <row r="142" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="I142" s="54"/>
-      <c r="J142" s="54"/>
-      <c r="M142" s="54"/>
-      <c r="N142" s="54"/>
-    </row>
-    <row r="143" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="I143" s="54"/>
-      <c r="J143" s="54"/>
-      <c r="M143" s="54"/>
-      <c r="N143" s="54"/>
-    </row>
-    <row r="144" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="I144" s="54"/>
-      <c r="J144" s="54"/>
-      <c r="M144" s="54"/>
-      <c r="N144" s="54"/>
+      <c r="H70" s="72"/>
+      <c r="K70"/>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K71"/>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K72"/>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K73"/>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K74"/>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K75"/>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K76"/>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K77"/>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K78"/>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K79"/>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K80"/>
+    </row>
+    <row r="81" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K81"/>
+    </row>
+    <row r="82" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K82"/>
+    </row>
+    <row r="83" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K83"/>
+    </row>
+    <row r="84" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K84"/>
+    </row>
+    <row r="85" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K85"/>
+    </row>
+    <row r="86" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K86"/>
+    </row>
+    <row r="87" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K87"/>
+    </row>
+    <row r="88" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K88"/>
+    </row>
+    <row r="89" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K89"/>
+    </row>
+    <row r="90" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K90"/>
+    </row>
+    <row r="91" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K91"/>
+    </row>
+    <row r="92" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K92"/>
+    </row>
+    <row r="93" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K93"/>
+    </row>
+    <row r="94" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K94"/>
+    </row>
+    <row r="95" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K95"/>
+    </row>
+    <row r="96" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K96"/>
+    </row>
+    <row r="97" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K97"/>
+    </row>
+    <row r="98" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K98"/>
+    </row>
+    <row r="99" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K99"/>
+    </row>
+    <row r="100" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K100"/>
+    </row>
+    <row r="101" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K101"/>
+    </row>
+    <row r="102" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K102"/>
+    </row>
+    <row r="103" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K103"/>
+    </row>
+    <row r="104" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K104"/>
+    </row>
+    <row r="105" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K105"/>
+    </row>
+    <row r="106" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K106"/>
+    </row>
+    <row r="107" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K107"/>
+    </row>
+    <row r="108" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K108"/>
+    </row>
+    <row r="109" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K109"/>
+    </row>
+    <row r="110" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K110"/>
+    </row>
+    <row r="111" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K111"/>
+    </row>
+    <row r="112" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K112"/>
+    </row>
+    <row r="113" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K113"/>
+    </row>
+    <row r="114" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K114"/>
+    </row>
+    <row r="115" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K115"/>
+    </row>
+    <row r="116" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K116"/>
+    </row>
+    <row r="117" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K117"/>
+    </row>
+    <row r="118" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K118"/>
+    </row>
+    <row r="119" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K119"/>
+    </row>
+    <row r="120" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K120"/>
+    </row>
+    <row r="121" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K121"/>
+    </row>
+    <row r="122" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K122"/>
+    </row>
+    <row r="123" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K123"/>
+    </row>
+    <row r="124" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K124"/>
+    </row>
+    <row r="125" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K125"/>
+    </row>
+    <row r="126" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K126"/>
+    </row>
+    <row r="127" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K127"/>
+    </row>
+    <row r="128" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K128"/>
+    </row>
+    <row r="129" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K129"/>
+    </row>
+    <row r="130" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K130"/>
+    </row>
+    <row r="131" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K131"/>
+    </row>
+    <row r="132" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K132"/>
+    </row>
+    <row r="133" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K133"/>
+    </row>
+    <row r="134" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K134"/>
+    </row>
+    <row r="135" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K135"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A63:C63"/>
+    <mergeCell ref="C25:C34"/>
+    <mergeCell ref="B25:B34"/>
+    <mergeCell ref="O23:U23"/>
+    <mergeCell ref="B9:B14"/>
+    <mergeCell ref="B16:B21"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="A23:C23"/>
     <mergeCell ref="Q36:S36"/>
     <mergeCell ref="D41:D61"/>
     <mergeCell ref="I36:J36"/>
@@ -6357,16 +5290,7 @@
     <mergeCell ref="O36:P36"/>
     <mergeCell ref="L36:N36"/>
     <mergeCell ref="L40:L43"/>
-    <mergeCell ref="B9:B14"/>
-    <mergeCell ref="B16:B21"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="A23:C23"/>
     <mergeCell ref="L45:L61"/>
-    <mergeCell ref="A63:C63"/>
-    <mergeCell ref="C25:C34"/>
-    <mergeCell ref="B25:B34"/>
-    <mergeCell ref="O23:U23"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
